--- a/news_data/2016_12.xlsx
+++ b/news_data/2016_12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,18 +22,69 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도·통계청 손잡고 관광산업 동향조사 나섰다</t>
+  </si>
+  <si>
+    <t>제주도-김녕미로공원, 녹색관광지 만들기 협약</t>
+  </si>
+  <si>
+    <t>제주도 관광약자 위한 ‘커뮤니케이션 지원보드’ 보급</t>
+  </si>
+  <si>
+    <t>제주도 주도적으로 관광보다 체육 진흥에 무게</t>
+  </si>
+  <si>
+    <t>제주도 '저가관광개선' 등 관광시장 다변화 추진</t>
+  </si>
+  <si>
+    <t>2016년 제주도 최우수 공영관광지는 '4.3평화공원'</t>
+  </si>
+  <si>
+    <t>제주도 '윈터페스티벌' 개최, 중문 관광단지와 흑돼지 맛집 다니기 좋아</t>
+  </si>
+  <si>
+    <t>[기고] 제주도는 제주관광공사 왜 만들었는가?</t>
+  </si>
+  <si>
+    <t>제주도,'관광을 통한 주민행복 맞춤사업' 등 내년 선도사업 4건 제출</t>
+  </si>
+  <si>
+    <t>제주도 2016년 하반기 우수관광사업체 지정</t>
+  </si>
+  <si>
+    <t>제주도, 중문관광단지 내 부영호텔 건축허가 신청 모두 '반려'</t>
+  </si>
+  <si>
+    <t>제주도 관광객 1500만 명 첫 돌파…부작용은 과제로</t>
+  </si>
+  <si>
+    <t>제주도, 오라관광개발 정책토론 반대</t>
+  </si>
+  <si>
+    <t>제주도 한라산 입장료 징수 방안 검토... 관광비용 증가로 지역 주민 반발 예...</t>
+  </si>
+  <si>
+    <t>제주도, 오라관광단지 도정정책토론 청구 '반려'</t>
+  </si>
+  <si>
+    <t>제주도-제주관광공사, 5차 명사초청 특강</t>
+  </si>
+  <si>
+    <t>중국인 관광객 300만원 쓰면 복수비자 발급? 제주도 무비자도 해결 못 하면서...</t>
+  </si>
+  <si>
     <t>제주도, 공공WiFi로 관광객 데이터 모은다</t>
   </si>
   <si>
+    <t>제주도 도내 카지노에 "관광진흥기금 누락분 내라"</t>
+  </si>
+  <si>
     <t>제주도 오라관광단지 정책토론 '반려'</t>
   </si>
   <si>
     <t>제주도, 오라관광단지 정책토론 청구 반려 결정</t>
   </si>
   <si>
-    <t>제주도 도내 카지노에 "관광진흥기금 누락분 내라"</t>
-  </si>
-  <si>
     <t>제주도, 민관합동 안심관광캠페인</t>
   </si>
   <si>
@@ -52,34 +103,76 @@
     <t>제주도관광협회, 사랑의 김장김치 나눔</t>
   </si>
   <si>
-    <t>제주도, 공공WiFi로 관광객 데이터 모은다 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:15 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, 공공WiFi로 관광객 데이터 모은다 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 공공WiFi로 관광객 데이터 모은다 홍수영 기자 승인 2016.12.21 17:39 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × ICT 기반 스마트관광 인프라 구축사업…관광객 빅데이터 구축 계획 [제주일보=홍수영 기자] 제주특별자치도는 정보통신기술(ICT) 기반의 스마트관광 인프라 구축사업으로 올해에 이어 내년에도 주요 관광지 등에 공공 와이파이(WiFi)를 추가 설치하고 개별관광객에 대한 빅데이터를 구축할 계획이라고 21일 밝혔다.제주도는 올해 도내 주요 관광지 및 관광객 밀집지역 600곳에 공공 와이파이를 설치했으며, 내년에는 1000여 곳에 공공 와이파이를 추가 설치할 예정이다.제주도는 관광객들이 공공 와이파이에 접속할 때 입력하는 국적과 성별, 나이 등을 수집해 패턴을 분석하고 빅데이터를 구축, 데이터 중심의 관광서비스를 구현할 계획이다.제주도는 오는 27일 ‘2016 스마트관광 추진사업 통합 완료 보고회’를 개최할 예정이다. 홍수영 기자  gwin1@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 홍수영 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도 오라관광단지 정책토론 ‘반려’ &lt; 사회일반 &lt; 사회 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 09:43 (화) 본문영역 이전 기사보기 다음 기사보기 제주도 오라관광단지 정책토론 ‘반려’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회일반 제주도 오라관광단지 정책토론 ‘반려’ 기자명 최병근 기자 입력 2016.12.06 15:58 수정 2016.12.06 16:01 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 시민단체, “원희룡 제주도정 내세운 ‘협치’ 포기선언”재청구여부 검토…부정부패감시제보센터 운영 계획 [제주도민일보 DB] 제주시민사회단체연대회의 소속 회원들이 지난달 3일 제주대학교에서 오라관광단지 개발사업 정책토론회 청구 서명운동을 벌이고 있는 모습.시민사회단체가 제안한 오라관광단지 개발 사업 정책토론회를 제주도가 법률상의 이유를 들어 사실상 거부하면서 파문이 일고 있다. 원희룡 제주도정이 내세운 ‘협치’를 포기한 것이나 다름 없다는 비판이 나오고 있다.더욱이 시민사회단체가 오라관광단지 개발사업 정책토론회를 다시 한번 청구를 검토하고 있어 향후 논란과 갈등은 더욱 깊어갈 것으로 보인다.제주도는 6일 제주시민사회단체연대회의가 청구한 오라관광단지 개발 사업 정책 토론을 최종 반려했다.시민사회단체연대회의에 따르면 제주도가 내세운 반려 이유는 ‘법률자문 결과’였다. 제주도가 제시한 내용에 따르면 “주민참여기본조례의 정책토론 조항이 모든 사업에 포함된다는 것은 지나친 확대해석이고, 주민참여 취지를 고려한다고 하더라도 제주도가 주체가 된 사업이 아니고 민간에서 인허가 절차중에 있으며, 민간 주체 사업까지 주요정책사업으로 보는 것은 지나친 확대해석”이라는 입장이다.하지만 시민단체연대회의는 매우 협소하게 해석한 행정 편의주의적 발상이라고 반박했다.시민사회단체연대회의 측은 “제주도가 유권해석을 의뢰했던 법제처는 조례에 대한 것은 제주도 차원에서 판단할 일이라며 정책토론을 받아들일 수 있는 충분한 사유를 제공했다”며 “결국 원희룡 도정은 조례의 규정을 매우 협소하게 해석한 행정 편의주의적 발상만을 한 것”이라고 반박했다.이를 두고 시민사회단체연대회의 측은 원희룡 도지사의 협치의 ‘완전 포기선언’이라고 규정했다. 그러면서 “앞으로 예상되는 이와 유사한 도민들의 정책토론 청구에 재갈을 물리려는 행정의 일탈행위”라고 규정했다.실제 향후 제기될 도정정책토론 청구 대상자는 조례 개정 등에 따라 유권자의 1000분의 1이면 가능해 졌지만 제주도가 이를 회피하기 위한 수단으로 거부했다는 비판에서 자유로울 수 없을 것으로 보인다.제주시민사회단체연대회의는 6일 성명을 내고 원희룡 지사에게 “이번 정책토론청구 반려에 대해 재검토 해 줄 것을 요청한다”며 “또한 연대회의 역시 오라관광단지 관련 정책토론회 재청구 여부 등을 포함해 법률적 대응도 해나갈 것”이라고 선언했다.또한 “오라관광단지 개발사업과 관련해 인허가 절차 등을 포함한 부정부패 사례에 대한 제보창구를 개설하고 오라관광단지를 막기 위한 도민적 감시운동을 펼쳐 나갈 것”이라고 밝혔다. 관련기사 오라관광단지 “정책 맞짱뜨자” “도민 삶 우선, 오라관광단지 중단하라” “오라관광단지 알 권리를 찾자” 오라관광단지 논란 ‘뜨거운 감자’ 급부상 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 제주 첫 전국장애인기능경기대회 폐막 오늘의 주요뉴스 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자 인사청문 ‘배신·기회주의자’ 난타 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 오라관광단지 정책토론 청구 반려 결정 &lt; 행정 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도, 오라관광단지 정책토론 청구 반려 결정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 행정 제주도, 오라관광단지 정책토론 청구 반려 결정 기자명 김경필 기자 입력 2016.12.06 16:42 수정 2016.12.06 18:31 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 도, 법률자문 거쳐 최종 결정…민간시행사업 판단별도 토론회 진행키로…시민연대 "협치 포기선언"제주도가 시민단체의 오라관광단지 정책토론 청구에 대해 법률 검토를 거친 결과 조례에서 명시한 정책토론 대상이 아니라고 판단, 반려 결정을 내렸다.다만 도는 사안의 중대성 등을 감안해 별도의 토론회를 개최하기로 해 귀추가 주목된다.김방훈 제주도 정무부지사는 6일 오전 제주도청 기자실을 방문한 자리에서 제주시민사회단체연대회의의 오라관광단지 개발사업 정책토론 청구를 반려할 계획이라고 밝혔다.제주시민사회단체연대회의는 지난달 21일 도민 등 2800여명의 서명을 받아 도에 오라관광단지 정책토론을 청구했다.이번 정책토론 청구는 제주도 주민참여기본조례에 명시된 도정 정책토론 개최 규정을 근거로 했다. 선거권자 총수의 1000분의 3 이상의 연서를 받아 정책토론을 청구할 수 있고 도지사는 1개월 이내에 정책토론에 응해야 한다.오라관광단지 사업은 제주도정이 내세운 미래비전 핵심가치인 청정과 공존에 부합하지 않고, 각종 의혹을 규명해야 한다는 것이 청구 취지다.하지만 도는 오라관광단지 정책토론 청구가 요건을 갖췄는지 법률자문을 거친 결과 정책토론 청구대상에 해당되지 않는다고 판단했다.오라관광단지 사업은 민간이 주도하는 사업으로 정책토론 청구대상인 제주도 주요정책 사업으로 보기 힘들다는 것이 법률자문 결과다.다만 도는 오라관광단지 개발사업을 두고 각종 의혹이 제기되는 점을 감안, 별도의 토론회를 진행하기로 했다.이에 대해 제주시민사회단체연대회의는 6일 보도자료를 내고 "도정은 조례의 규정을 매우 협소하게 해석하는 등 행정 편의주의적 발상만을 한 것"이라며 "협치 포기선언이자 행정의 일탈행위"라고 비판했다. 김경필 기자 kkp2032@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 도내 카지노에 "관광진흥기금 누락분 내라" &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 도내 카지노에 "관광진흥기금 누락분 내라" 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도 도내 카지노에 "관광진흥기금 누락분 내라" 기자명 윤주형 기자 입력 2016.12.14 15:41 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 23억원 부과 통지…내년 6월까지 4회 분납 &lt;속보&gt;제주도가 도내 모 카지노가 세무조사 과정에서 관광진흥기금 20여억원 누락 사실을 포착한 가운데 소멸시효를 앞두고 부과통지서를 발송한 것으로 확인됐다. 제주도는 지난달 도내 모 카지노에 관광진흥기금 추가분 23억원을 낼 것을 통보했다. 해당 업체가 분한 납부를 요청함에 따라 도는 오늘(15일) 1차 납부를 시작으로 내년 6월까지 4회에 걸쳐 23억원을 내도록 조치했다. 내년 6월까지 제주도가 부과한 관광진흥기금 추가분을 내지 않으면 영업정지 등 행정처분을 받게 된다. 이에 앞서 2013년 8월 부산지방국세청은 2009년 1월부터 2011년 12월까지 제주도내 모 외국인 카지노의 매출 자료를 확인하는 등 세무조사를 했다. 세무조사 결과 이 업체가 2011년 매출액 220억원을 누락해 신고한 것으로 드러나면서 세무당국은 가산세 등을 합쳐 모두 107억원 상당의 세금을 부과·징수할 수 있다고 고지했다. 하지만 제주도는 당시 해당 업체에 관광진흥기금을 추가로 부가하지 않다가 본보 보도(2016년 5월31일자 2면, 6월6일자 2면) 이후 관련 절차를 진행했다. 제주도 관계자는 "변호사 자문 및 법률 검토 결과 해당 카지노에 대한 추가 관광진흥기금 부과 소멸시효는 내년 4월까지로 판단하고 있다"며 "부과된 기금을 내지 않으면 과태료, 영업정지 등 행정 조치가 이뤄진다"고 말했다. 윤주형 기자 21jemin@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 민관합동 안심관광캠페인 - 불교공뉴스 × 전체기사 종합 지역뉴스 전체 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 서울시 대구시 강원도 인천시 경기도 광주시 전라남도 전라북도 부산시 울산시 경상남도 경상북도 제주도 충주시 제천시 괴산군 부여군 논산시 공주시 천안시 안동시 담양군 청양군 여수시 금산군 예산군 아산시 고양시 횡성군 증평군 성남시 하동군 속초시 음성군 순천시 경주시 광양시 나주시 화순군 목포시 신안군 무안군 종교 전체 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 전체 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈.기획 연합뉴스 전체 엑셀데이터 선거정보 경제일반 TV동영상 자동생성기사 UPDATED. 2022-10-04 10:06 (화) 로그인 회원가입 보도자료 모바일웹 전체 종합뉴스 지역뉴스 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 청양군 성남시 종교소식 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈·기획 연예뉴스 검색버튼 기사검색 검색 이전 다음 제주도, 민관합동 안심관광캠페인 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 지역뉴스 제주도 제주도, 민관합동 안심관광캠페인 지화 승인 2016.12.02 11:55 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 이 기사를 번역합니다 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도네시아어 × [불교공뉴스-제주도] 제주특별자치도와 제주관광공사(사장 최갑열)는 외국인 관광객이 많이 방문하는 성산일출봉 일대에서 성산읍 주민, 중국어관광통역안내사협회, 서귀포시, 관광경찰과 함께 ‘모두가 안심하고 관광할 수 있는 제주 만들기’ 관광캠페인을 12월2일 실시하였다. 이번 캠페인은 도민과 관광객들 사이에 언어, 문화차이로 인하여 발생하는 사건·사고 및 관광객 기초질서 위반 등을 예방하기 위하여 성산읍 주민들이 함께 참여하는 민관합동 캠페인으로 진행되었다. 도민에게는 외국인관광객들의 문화를 이해할 수 있도록 글로벌 문화책자를 배포하고 외국인관광객들에게는 제주관광시 지켜야 하는 기본적인 에티켓이 담겨 있는 리플렛을 배포하고 홍보함으로써 도민과 관광객 모두가 만족하는 안심관광 분위기를 조성하였다. 캠페인에 참가한 중국어관광통역안내사 관계자는 “제주관광 활성화를 위해서 도민과 관광객 모두가 언어․문화적 차이를 이해하고 기초질서를 준수하여 안심하고 관광 할 수 있는 분위기를 조성해야한다”라고 강조했다. 저작권자 © 불교공뉴스 무단전재 및 재배포 금지 지화 다른기사 보기 기사가 마음에 드셨나요? 불교공뉴스는 창간 때부터 클린광고 정책을 유지하고 있습니다. 이것은 작은 언론으로서 쉬운 선택은 아니었습니다. 그럼에도 불구하고 불교공뉴스는 앞으로도 기사 읽는데 불편한 광고는 싣지 않겠습니다. 불교공뉴스는 아이 낳고 기르기 좋은 세상을 만드는 대안언론입니다. 저희 기사가 마음에 드셨다면, 좋은 기사 후원하기에 동참해주세요. 여러분의 기사후원 참여는 아름다운 나비효과를 만들 것입니다. 불교공뉴스 좋은기사 후원 계좌안내 농협 301-0234-1422-61 (손경흥 / 불교공뉴스) ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 인기기사 1옥천군, 제35회 지용제 둘째 날 ‘제19회 군민 한마음 노래자랑 &amp;향수 콘서트’ 개최 2[영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! 3나태주풀꽃문학관, 제5회 풀꽃문학제 ‘두 사람’ 개최 4옥천군, 제35회 시(詩)끌북적 문학축제의 ‘다시 지용의 고향에서’로 초대합니다 5[인터뷰] 『아프지 않은 사랑이 어디 있으랴』 첫 산문집 출간한 이은봉 시인! 6단양 대가초,“별이 빛나는 사제동행 힐링캠프”실시 7[영상뉴스] 옥천군 제35회 지용제 ‘詩끌북적 문학축제' 팡파르~ 8‘천안흥타령춤축제 2022’ 86만 명 시민 열광 속 폐막 9옥천군, 제35회 지용제 셋째 날 풍경! 10[영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 최신기사 볼거리 풍성한 2022제천한방바이오박람회 민선8기 제천시장 공약 평가 자문위원회 개최 하동군 옥종면민의 날 및 면민체육대회 4년만에 성료 하동읍민 화합 한마당 잔치 성황리 개최 황갑선 회장,하동군장학재단, 9년째 통큰 장학기금 기탁 하동군, 스피드 행복민원 서비스 시행 정성이 피어나는 생명의 꽃 제40회 금산인삼축제 개막! 오늘의 동영상 [영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! [영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 [불교공뉴스·TV 힐링대담] JB가든센터 '대림묘목농원' 김정범 대표 [포토뉴스] 지용제, 3년 만에 구읍을 詩끌북적하게 하며 성료 [영상 / 포토] 옥천군, 제35회 지용제 ‘시(詩)끌북적 문학축제’의 마지막 날 옥천군, 제35회 시(詩)끌북적 문학축제의 ‘다시 지용의 고향에서’로 초대합니다 순창군, 순창장류축제 유튜브크리에이터들과 함께 유튜브로 홍보 강화 [영상뉴스] 옥천군 제35회 지용제 ‘詩끌북적 문학축제' 팡파르~ 포토뉴스 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 충청북도 옥천군 지용로 142 대성사 사업자명 : 손경흥 사업자번호 : 688-03-01080 대표전화 : 043-733-5559 팩스 : 043-733-5559 명칭 : 불교공뉴스 제호 : 불교공뉴스 등록번호 : 충북아 00049 등록일 : 2010-11-01 발행일 : 2010-11-11 발행인 : 혜철스님(손경흥) 편집인 : 손경흥 청소년보호책임자 : 이한배 불교공뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 불교공뉴스. All rights reserved. mail to webmaster@bzeronews.com 위로</t>
-  </si>
-  <si>
-    <t>제주도, 오라관광단지 도정정책토론청구서 반려 | 아주경제 2022.10.04 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 제주도, 오라관광단지 도정정책토론청구서 반려 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 제주도, 오라관광단지 도정정책토론청구서 반려 기자정보, 기사등록일 입력 2016-12-07 11:05 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 조례에서 정한 도 주요정책 사업에 해당되지 않아 아주경제 진순현 기자= 제주도가 오라관광단지 도정정책토론청구서를 반려했다. 이는 조례에서 정한 도의 주요정책 사업에 해당되지 않는다는 게 이유다. 제주도(지사 원희룡)는 지난달 21일 접수된 오라관광단지 도정정책토론 청구서(3127명 서명, 청구인대표 문상빈)에 대해 지난 6일 관련 일건서류를 청구인 대표에게 반려했다고 7일 밝혔다. 도에서는 주민참여기본조례 제8조에서 정한 ‘제주자치도의 주요정책 사업’에 해당되는지에 대해 법률 자문과 법제처 유권해석을 요청한 결과 “민간이 주체가 돼 인허가 절차 중에 있는 사업은 조례에서 정한 정책토론 대상이 아니다”라는 결과를 받았다. 관련기사제주, 올해 10월 토지거래 면적 감소세 지속↓中 카지노 천국 '오라관광지구'…제주도 왜? "노골적인 편들기" 이승찬 관광국장은 “청구인 대표를 방문해 반려사유에 대한 설명과 함께 반려문서를 전달했다”며 “이와 별도로 도민 관심 사업이기 때문에 설명회나 토론회 개최를 검토 하겠다”고 말했다. #도정정책토론청구서 #반려 #오라관광단지 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1욜로인 줄 알았는데…월 570만원 버는 리치 싱글, 알뜰·부업족 더 많다 2제로코로나에 발 묶인 중국인…국경절 '즉흥바캉스' 대세로 3빚 갚는데 월급 다 쓰겠네...뛰는 금리에 2년새 월상환액 2배 껑충 4투자 혹한기의 역설…스타트업 M&amp;A 활발한 까닭 5복지위 국감 화두는 '코로나·비대면·리베이트'... 경보제약 대표 등 증인출석 6내년부터 서울 택시 기본요금 1000원·호출료 최대 5000원 오른다 7환율 오르는데, 비자 카드 계속 사용해도 될까? 1욜로인 줄 알았는데…월 570만원 버는 리치 싱글, 알뜰·부업족 더 많다 2빚 갚는데 월급 다 쓰겠네...뛰는 금리에 2년새 월상환액 2배 껑충 3내년부터 서울 택시 기본요금 1000원·호출료 최대 5000원 오른다 4환율 오르는데, 비자 카드 계속 사용해도 될까? 5​3년 연속 국감 불려가는 송호섭 스타벅스 대표... '서머 캐리백' 논란에 거취도 주목 6尹 정부 첫 국정감사 시작…소비자물가 동향 발표 7​8월 경기도 아파트 매매량 '역대 최저'…과천시 4건 1尹 대통령 지지도 31.2%...'비속어 논란'에 4주 만에 하락세 2김민석 "10~30대 사망원인 1순위 자살...코로나 이후 증가 현상 우려" 3삼성·포스코부터 5대 은행장까지···기업들 "나 떨고 있니" 4감사원, '文 서면조사' 논란에 "노태우·김영삼‧이명박‧박근혜도 조사" 5이재명, 감사원 '文 서면조사' 통보에..."유신 공포정치 연상" 6합참 "북한, 동쪽으로 탄도미사일 발사...제원 분석 중" 7서울시, 평양과 올림픽 공동유치에 28조원 추산… "꼼수 대북지원 여부 조사 필요" 1무비자입국 허용에 방한일본인 1000% '껑충'…관광시장 회복 '가속화' 2'임실엔가을'…치즈축제 열기 속 가을꽃 향연 3방한 일본인 200여명, 제주 드림타워 찾았다 4안성시, 남사당 바우덕이 축제 폐막‥.잊지 못할 추억 전해 5볼거리 먹거리 찍을거리 많은 전남 "사나흘 머물면서 즐기세요" 6대구 동구청, 동대구역 동고가교 방면 1차로 주행 가능 7가족·친구·외국인 3000명 함께…"걸으며 역사 배우는 시간" 1투자 혹한기의 역설…스타트업 M&amp;A 활발한 까닭 2과방위, 진통 끝 일반증인 명단 합의…이통3사 수장은 제외 3대기업까지 옥죄는 高금리...영업이익으로 이자도 못 낸다 4"화면 벗어나 몸으로 느낀다" 네이버웹툰 '문유', CGV 4DX로 개봉 56G 필수인 저궤도 위성통신 속도 내는 韓 정부·기업...원웹 "우리도 참가 희망" 6신차보다 비싼 중고 전기차···보조금보다 많은 웃돈 '돈벌이 악용' 7캐스퍼, ​출시 1년만에 누적 판매량 4만5000대···'경차 1위' 오늘의 1분 뉴스 신용 1억+전세대출 5억…月 이자 259만원 낸다 감사원 ‘文조사’ 통보 직후 당정은 정부조직개편 논의 3000명의 시민들 북적… “건강·추억 모두 챙겼죠” 10월 첫째 날 3대 지수 일제 상승 ​3년 연속 국감 불려가는 송호섭 스타벅스 대표 서학개미, 글로벌 증시 공포 속 '아찔한 베팅'…3Q 실적 발표 '변곡점' 보험대출 7%, 주담대 8%, 카드론 15% 금리 쇼크 머지 않았다 포토뉴스 마산해양신도시 인근 바다 물고기 떼죽음 제4354주년 개천절 경축식 김연아, '여신 등장' 3년 만에 열린 '뉴발란스 런온 서울' 아주 글로벌 中國語 English 日本語 Tiếng Việt 韩汽油价格每升下降约合人民币8.34元 No hurry in selling HMM to new company, not foreign company or private equity fund ムーディーズ、「韓国の輸出減少傾向、来年初めまで続く」と予想 Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 뛰는 금리에 2년새 월상환액 2배 껑충 내년부터 서울 택시 기본요금 4800원 합참 "북한, 동쪽으로 탄도미사일 발사...제원 분석 중" 삼성·포스코부터 5대 은행장까지···기업들 "나 떨고 있니" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
-  </si>
-  <si>
-    <t>제주도, 오라관광단지 정책토론 '반려'..."법적 대상 아냐" - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 오라관광단지 정책토론 '반려'..."법적 대상 아냐" 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 제주도, 오라관광단지 정책토론 '반려'..."법적 대상 아냐" 박성우 기자 headlinejeju@headlinejeju.co.kr 승인 2016.12.06 13:55 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 시민사회단체연대회의 청구 조례상 정책토론 '반려' 결정 "오라단지 도민사회 미칠 영향 커" 별도 토론회 개최 가닥 ▲ 지난달 2일 열린 오라관광단지 의혹 규명 도정정책토론 청구 서명운동 시작 기자회견. ⓒ헤드라인제주 제주지역 역대 최대 규모이자, 난개발 및 환경훼손 논란에 휩싸인 제주오라관광단지 개발사업에 대한 각종 의혹과 논란을 규명하기 위해 시민사회단체가 청구한 정책토론이 사실상 받아들여지지 않을 전망이다. 이를 대신해 관련 의혹을 설명하기 위한 별도의 도민설명회를 개최하겠다는 내부 방침을 세운 것으로 전해졌다.김방훈 제주도 정무부지사는 6일 오전 제주도청 기자실을 방문한 자리에서 제주시민사회단체연대회의로부터 제기된 오라관광단지 개발사업 정책토론 청구를 반려할 계획이라고 밝혔다.법률자문 결과 해당 사안은 정책토론의 대상이 아니라는 판단이다.이번 정책토론 청구는 제주도 주민참여기본조례에 명시된 '도정 정책토론'을 시행하기 위한 것으로, 지난달 21일 청구인 2800여명의 서명을 받은 제주시민사회단체연대회의가 제기했다.조례에서는 선거권자 총수의 1000분의 3 이상의 연서를 받아 정책토론을 청구할 수 있도록 하고 있는데, 이 경우 제주도지사는 1개월 이내에 정책토론에 응해야 한다. 제주도정의 사업자 밀어주기와 특혜 의혹, 환경영향평가심위원회 운영과정의 문제 등 불거진 의혹에 대해 공개적으로 짚고 넘어가겠다는 취지다.다만, 제주도는 이번 오라관광단지 사업인 경우 제주도 주체하는 사업이 아닌 민간이 하는 사업을 신청만 받은 것이어서 정책토론의 대상이 아니라는 법률자문 결과를 받았다고 설명했다.제주도 관계자는 "주민참여기본조례의 정책토론 조항이 모든 사업에 포함된다는 것은 지나친 확대해석이라는 자문을 얻었다"며 "주민참여 취지를 고려한다고 하더라도 제주도가 주체가 된 사업이 아니고 민간에서 인허가 절차 중에 있고, 민간 주체 사업까지 주요정책사업으로 보는 것은 지나친 확대해석"이라고 강조했다.이 관계자에 따르면 법제처도 "조례에 대한 것은 자치단체가 알아서 판단해야 할 재량에 관한 것으로, 법제처가 유권해석하는 것은 바람직하지 않다"는 뜻을 전해온 것으로 알려졌다.결국 조례상으로 보장하고 있는 오라관광단지개발사업에 대한 정책토론 청구는 반려될 것으로 보인다.단, 이 경우 제주도는 오라관광단지 개발사업이 도민에게 미칠 영향 등을 고려해 별도의 도민설명회나 토론회는 개최할 용의가 있다는 뜻을 내비쳤다. 앞서 원희룡 제주도지사는 정책토론이 청구된 직후인 지난달 23일 제주도청 기자실을 찾은 자리에서 "(정책토론이)법적 요건에 해당되면 당연히 응할 것이고, 해당되지 않더라도 여러 억측들에 대해 설명 내지는 토론을 할 필요가 있다고 생각한다"고 밝힌 바 있다.원 지사는 "업자측에서는 (정책토론 대상에)해당이 안된다는 법률자문결과를 어제 도에 제출했다. 도의 정책사업이라는 것을 어떻게 해석할 것인가. 다른 지자체는 자치단체가 주체가 되어 추진하는 경우였는데, 오라관광단지인 경우 단순히 사업자 추진하는 것 인허가 하는 것"이라며 "인허가 절차가 이에 해당되는가, 유권해석 법률자문을 충분히 받아서 그에 대한 판단을 하겠다"고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 박성우 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 원희룡, 오라관광단지 정책토론 수용 시사..."억측 설명 필요" 오라관광단지 정책토론 '반려' 강력반발..."협치 포기선언" 규탄 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 제주행 여객선서 선상이벤트 진행 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 제주행 여객선서 선상이벤트 진행 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 제주행 여객선서 선상이벤트 진행 신동원 기자 headlinejeju@headlinejeju.co.kr 승인 2016.12.12 14:30 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주도관광협회(회장 김영진)는 12일 제주-전남을 잇는 퀸스타2호 선내에서 관광객을 대상으로 환상의 마술쇼, 레크레이션, 경품추첨 등 다양한 이벤트를 진행했다.이날 행사는 선내에서 다채로운 이벤트를 진행해 관광객에게 뱃길관광의 만족도 제고와 구전효과를 극대화함으로써 제주기점 뱃길관광 활성화를 도모하기 위한 일환으로 추진됐다. 제주도와 제주도관광협회는 올해 제주와 호남지역(목포, 우수영, 여수, 완도)간 운항중인 선박내에서 이벤트 개최 및 제주기점 뱃길관광 상품개발 등으로 포화상태인 항공이용을 뱃길로 분산하는 등의 뱃길관광 활성화를 위한 노력을 지속적으로 해오고 있으며, 이달 중순에는 제주-부산 노선에서도 선상이벤트가 진행할 예정이다.뿐만 아니라, 선사에서도 크루즈형 대형 카페리 선박 도입 등 쾌적한 부대시설과 다양한 편의시설을 갖춰 관광객의 만족도를 높이고, 선박과 항로의 다양화 등 끊임없는 변화 시도와 세월호 참사 이후 부상한 선박 안전에 대한 불신을 해소하기 위해 '스마트폰 탑재 3D 해상안전 솔루션' 개발 등 안전성 확보에도 전력을 쏟고 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 신동원 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도관광약자접근성안내센터, '장애IN제주' 앱 개편 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도관광약자접근성안내센터, '장애IN제주' 앱 개편 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도관광약자접근성안내센터, '장애IN제주' 앱 개편 기자명 고경호 기자 입력 2016.12.07 20:42 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 사용자 맞춤형 편의 제공 확대장벽 없는 제주관광 만들기를 위한 어플리케이션 '장애IN제주'가 전면 개편됐다.제주도관광약자접근성안내센터는 사용자 편의에 맞춘 새로운 버전을 오픈했다고 7일 밝혔다.도관광약자접근성안내센터는 시각장애인을 위한 앱 접근성을 강화했으며, 색상 명도대비를 높여 저시력 장애인의 사용 편의도 제고했다.또 추천 검색어·인기 검색어 기능을 추가했으며, 사용자의 현재 위치에서 관광지를 찾아갈 수 있는 내비게이션 기능도 보강했다.새로 개편된 '장애IN제주' 앱은 안드로이드폰의 경우 '플레이 스토어'에서, 아이폰의 경우 '앱 스토어'에서 무료로 다운받을 수 있다. 고경호 기자 고경호 기자 kkh@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 사랑의 김장김치 나눔 &lt; 열린광장 &lt; 도민광장 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 09:43 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 사랑의 김장김치 나눔 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 도민광장 열린광장 제주도관광협회, 사랑의 김장김치 나눔 기자명 허성찬 기자 입력 2016.12.04 17:45 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도관광협회(회장 김영진)은 지난 3일 '2016 사랑의 김장김치 나눔행사'를 개최해 도내 사회복지단체를 비롯해 제주시 지역 독거노인 가구에 김장김치를 전달했다.김영진 회장은 "매년 시행되는 김장나눔 행사를 활성화하여 향후 더 많은 지역사회 소외계층에게 도움의 손길이 닿을 수 있도록 노력하겠다"고 전했다. 허성찬 기자 jejuhsc@gmail.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 제주 첫 전국장애인기능경기대회 폐막 오늘의 주요뉴스 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자 인사청문 ‘배신·기회주의자’ 난타 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+    <t>제주도·통계청 손잡고 관광산업 동향조사 나섰다 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도·통계청 손잡고 관광산업 동향조사 나섰다 (제주=뉴스1) 안서연 기자					| 2016-12-26 16:24 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 김방훈 제주도 정무부지사(사진 가운데)와 문권순 호남지방통계청장(왼쪽), 최갑열 제주관광공사 사장(오른쪽)이 26일 '제주 관광산업동향조사' 사업을 위한 다자간 업무협약을 체결하고 기념사진을 찍고 있다. (제주도 제공) 2016.12.26/뉴스1 © News1 제주도가 제주관광산업 동향을 파악하기 위해 통계청과 손을 맞잡았다.제주도와 호남지방통계청은 26일 오후 제주도청 별관 청정마루에서 김방훈 정무부지사, 문권순 호남지방통계청장, 최갑열 제주관광공사 사장 등이 참석한 가운데 ‘제주 관광산업동향조사’ 사업을 위한 다자간 업무협약을 체결했다.앞서 도는 지난 4월 수립한 ‘제주관광 질적성장 기본계획’에 기초해 도내 관광산업의 구성과 그 흐름을 객관적으로 파악할 수 있는 ‘제주 관광산업동향조사’ 개발을 기획했다.이후 9월 통계의 신뢰도 제고를 위해 통계 전문기관인 호남지방통계청에 제주관광산업 범위 설정과 조사 방향 등에 대해 의뢰했으며, 이번에 제주관광공사와 다자간 협약을 하기에 이르렀다.이번 협약을 통해 호남지방통계청은 앞으로 제주 관광사업동향조사 개발을 맡아 통계조사를 대행하고, 이후 필요한 제반 전문지식과 기술을 제주관광공사에 지원하기로 했다.제주관광공사는 조사의 초기단계에서부터 통계개발 및 조사 과정에 참여하며, 호남지방통계청의 통계대행이 종료된 뒤 통계조사 및 관리를 맡기로 했다.도는 원활한 개발과 발전을 위해 예산 및 인력을 적극 확보하는 등 행정·재정적 지원할 계획이다.도 관계자는 “관광수입이 지역경제 활력화로 이어지지 않는다는 지적이 많다”며 “이럴 때일수록 실효성 있는 관광정책을 위해 보다 정확하고 신뢰할 수 잇는 자료가 필요한데 동향조사가 그 역학을 할 수 있을 것”이라고 기대했다.호남지방통계청 관계자는 “관광산업의 개별 업종별 경기 동향을 파악할 수 있는 전국 최초의 ‘제주 관광산업생산지수’를 통해 제주 관광의 질적 성장을 위한 정책방향을 제시할 수 있는 통계를 생산하겠다”고 말했다.한편 호남지방통계청은 27일 오전 10시 메종글래드제주에서 그동안 추진해 온 ‘제주 관광산업동향조사’ 추진 내용을 정리해 발표할 예정이다. 이후 도내 학계·민간단체 관계자들과의 ‘제주 관광산업생산지수의 정책 활용방안’ 토론회로 마련됐다.통계청은 이번 설명회를 통해 조사기획을 마무리한 뒤 내년에는 관광산업 대상 사업체를 대상으로 분기단위 현장조사를 실시할 예정이다. 관광 업종별 경기 동향 자료 활용 및 공표는 3년 이상의 데이터가 축적되는 2018년에 가능할 전망이다. asy0104@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>에이블뉴스 - 제주도 관광약자 위한 ‘커뮤니케이션 지원보드’ 보급 [메뉴 건너뛰기] 바로가기 -서비스목록선택- 전체기사 많이본기사 알려드립니다 자유게시판 친구합시다 로그인 | 회원가입 검색 검색 폼검색 범위 통합검색 뉴 스 뉴스태그 포 토 동영상 -이슈동영상 -수화동영상 -오디오뉴스 지식짱 -Q &amp; A -지식자료실 블로그 사이트 검색어 인기검색어 코로나19 | 탈시설 | 집중호우 주요서비스 추천컨텐츠[모집] 현재 에이블서포터즈 회원 명단입니다. 뉴스기사분류 전체기사 | 기획특집 | 정보세상 | 오피니언 | 정치/정책 | 인권/사회 | 노동/경제 | 통합교육 | 복지/건강 | 여성/아동 | 자립생활 | 문화/체육 | 인물/단체 | 전국넷 강원·제주 서브메뉴 전체기사 기사제보 많이본기사 취재수첩 세상이야기 댓글 열전 공식블로그 주요행사 에이블서포터즈 장애인신문고 - 발달장애인이 행복한 삶 '주간활동서비스' 사업 안내 - 한국장애인개발원 장애인식개선 유튜브 채널 '당장만나' 뉴스홈 &gt; 전국넷 &gt; 강원·제주 http://abnews.kr/1D8Q 본문시작 제주도 관광약자 위한 ‘커뮤니케이션 지원보드’ 보급 제주도접근성안내센터, 4개 언어 번역해 무료 배포 에이블뉴스, 기사작성일 : 2016-12-20 14:23:52 ▲ 제주특별자치도관광약자접근성안내센터가 ‘커뮤니케이션 지원보드’를 제작해 이 달부터 무료로 배포하고 있다고 20일 밝혔다.ⓒ제주도관광약자접근성안내센터 제주특별자치도관광약자접근성안내센터가 ‘커뮤니케이션 지원보드’를 제작해 이 달부터 무료로 배포하고 있다고 20일 밝혔다. ‘커뮤니케이션 지원보드’는 청각 및 지적장애인, 외국인 등 의사표현이 어려운 관광약자들이 제주 관광시 의사소통에 필요한 언어를 대신하는 의사소통 보조도구로, 한국어, 중국어, 일본어, 영어 총 4개의 언어로 번역되어 있다.고현수 센터장은 “실제 관광에 있어 기본이 되는 의사소통의 문제를 해결함으로써 향후 제주를 방문하는 관광약자들이 보다 편안한 여행을 할 수 있을 것”이라고 말했다“커뮤니케이션지원보드”는 제주웰컴센터, 제주국제공항 종합관광안내센터 등 관광객이 주로 찾는 장소에 비치될 예정이다. 자세한 문의는 제주특별자치도관광약자접근성안내센터(1566-4669)로 하면 된다.-장애인 곁을 든든하게 지켜주는 대안언론 에이블뉴스(ablenews.co.kr)--에이블뉴스 기사 제보 및 보도자료 발송 ablenews@ablenews.co.kr- 이슬기 기자 (lovelys@ablenews.co.kr) 이슬기 기자의 다른기사 보기 ▶ &lt; 네이버에서 에이블뉴스를 쉽게 만나보세요! &gt; &lt;내손안의 에이블뉴스~ 언제 어디서나 빠른 장애인계 소식~&gt; [저작권자 ⓒ 에이블뉴스, 무단 전재 및 재배포 금지] 제주특별자치도관광약자접근성안 지적장애인 커뮤니케이션 지원보다 최신기사목록 기사분류 기사제목 글쓴이 등록날짜 전국넷 &gt; 강원·제주 제주서 발달장애 정은혜 작가와 장애인식개선 행사 진행 이슬기 기자 2022-10-06 14:30:16 전국넷 &gt; 강원·제주 강원발달센터, ‘발달장애인 부모교육·가족휴식지원사업’ 수기 공모 백민 기자 2022-09-30 09:07:48 전국넷 &gt; 강원·제주 서귀포시IL센터 ‘우리가족 책 만들기’ 참여 가정 모집 이슬기 기자 2022-09-26 15:18:38 [전체] 가장 많이 본 기사 1위 교통약자 위한 역사 내 길안내 서비스 즉... 2위 [부고] 한국장애인연맹 송영욱 전 회장 ... 3위 장애예술인 인터뷰, 소설가 이서진 4위 장애인활동지원기관 주민세 감면 대상 포... 5위 ‘의학적 판단 중심’ 발달장애인 활동지... 인기검색어 순위 lpg 시급 탈시설 코로나19 장애인활동지원 장애인 집중호우 지적장애 시각장애인 한국장애인고용공단 [강원·제주] 많이 본 기사 제주서 발달장애 정은혜 작가와 장애인식개선... 댓글이 더 재미있는 기사 전화로 예약하는 것보다 더 중요한게 빠져있다 전국의 잔영휴양림에 국립의 경우에는 대부분 ... 발달장애인 주간활동서비스 ‘그림의 떡... [4] ‘우영우’는 없다, 발달장애인 가족은 ... [3] 장애인활동지원 본인부담금 납부 ‘후덜... [3] 발달장애인 고용 창출, '먹튀'는 안 된다 [2] 연이은 장애인 폭우·화재 참사, 남 일 ... [1] 주간 베스트 기사댓글 국회의원이 그것도 모르나. [15]장애인 등록 부터 하고 중증판정 받... [11]문재인이 눈시울 붉히며 [9]기사는 좋은데... 사진이 에바다. [8]나도 사진이 GSGG 네 [6] 새로 등록된 포스트 경인장애인자립생활센터 22년 8월 뉴스레터 Vol.13 경인장애인자립생활센터 8월호 뉴스레터가 나왔... (46.)프란치스코 교황님 회칙 『찬미받으..♣(핸드폰 컴퓨터 정보 유출) 내PC돌보미..필터 샤워기 추천 제품♣ 서울세계불꽃축제 2022마음이 흐뭇해진다는 것이란?|김일권 요.. 에이블뉴스는? 언론사소개 에이블서포터즈 장애인신문고 온라인광고 제휴사 개인정보취급방침 이용약관 사이트오류신고 사이트맵 도움말 (주)에이블뉴스 / 사업자등록번호:106-86-46690 / 대표자:백종환,이석형 / 신문등록번호:서울아00032 / 등록일자:2005.8.30 / 제호:에이블뉴스(Ablenews) 발행,편집인:백종환 / 발행소:서울시 용산구 한강대로7길 17 서울빌딩1층(우04380) / 발행일자:2002.12.1 / 청소년보호책임자:권중훈 고객센터 Tel:02-792-7785 Fax:02-792-7786 ablenews@ablenews.co.kr Copyright by Ablenews. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 주도적으로 관광보다 체육 진흥에 무게 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 주도적으로 관광보다 체육 진흥에 무게 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도 주도적으로 관광보다 체육 진흥에 무게 기자명 윤주형 기자 입력 2016.12.20 15:40 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 &lt;제주도 내년 예산 어떻게 짜였나&gt; 4. 문화관광스포츠분야 행정시 문화관광스포츠 예산 전년보다 줄어도 관광 예산 9% 감액…체육분야 30% 증가제주도가 내년에는 관광보다 체육 분야에 집중하면서 문화관광스포츠 분야 사업을 주도적으로 추진할 것으로 전망된다. 내년도 문화관광스포츠 분야 예산은 전년 대비 10.73% 늘어났지만 제주시는 관광·체육 분야가 줄어드는 등 전년 대비 10.3%가 감소했고, 서귀포시는 문화·관광 분야 예산이 전년보다 10% 이상 감액 편성된 것으로 나타났기 때문이다. 문화관광스포츠 분야 예산은 2673억원으로 내년 제주도 전체예산 4조4493억원의 6.05%를 차지한다. 내년 문화관광스포츠 분야 예산은 전년(2016년) 2414억원보다 259억원(10.73%) 증가, 도 전체 증가율 8.45%보다 2.28%포인트 높게 편성됐다. 부서별 예산 편성 현황을 보면 제주도 문화체육대외협력국이 752억원으로 전년 638억원보다 113억원(17.84%) 늘었고, 세계유산본부는 527억원으로 전년 대비 24.81% 증가했다. 또 문화예술진흥원도 전년 대비 17.51% 증액 편성됐고, 한라도서관 14.63%, 제주도립미술관 30.22%, 서귀포시 0.32% 등이 늘었다. 전년 대비 예산이 가장 큰 폭으로 증가한 부서는 돌문화공원관리사무소로, 전년 32억원보다 122억원(372.7%) 늘어난 154억원이 편성됐다. 또 제주도 체육진흥 관련 부서 예산은 전년 280억원보다 57억원(30.63%)늘어난 338억원이 반영됐다. 이에 비해 관광국은 전년보다 40억원(9.05%), 제주시는 411억원(10.3%)씩 줄었다. 특히 제주시와 서귀포시 등 행정시의 문화관광스포츠 분야 사업은 대체로 전년보다 감액 편성되면서 제주도가 문화관광스포츠 분야 사업을 '진두지휘'할 것으로 분석되고 있다. 제주시 문화관광스포츠 분야 예산 가운데 체육 분야 예산은 127억원으로 전년 218억원보다 91억원(41.84%) 줄었고, 관광 분야 예산도 전년 대비 9.54% 감소했다. 이와 함께 서귀포시의 경우 문화예술 분야 예산은 전년보다 10억원(11.4%), 관광분야는 전년보다 8억원(14.01%)씩 감액 편성됐다. 제주관광 경쟁력 강화 및 투자유치 기반조성 등을 위한 관광 분야 예산이 전년보다 감액 편성, 제주도가 관광산업 육성 및 투자유치 정책 방향을 전환하는 것 아니냐는 분석이 나오고 있다. 게다가 지역별 여건 등을 감안한 문화, 관광, 체육 분야 사업 추진을 위한 행정시 예산도 전년보다 감소하면서 행정시 역할 및 기능 강화를 위한 방안 마련이 요구되고 있다. 한편 제주도의회는 지난 14일 제347회 제2차 정례회 제6차 본회의를 열고 제주시민 창작 스튜디오 조성 시설비 20억원, 탐라문화유산 발굴 및 복원사업 공기관 대행 사업비 6억원, 제주문화예술재단 운영비 출연금 6억원 등 52억6000만원을 조정한 문화관광스포츠 분야 예산을 포함한 내년 제주도 예산을 승인했다. 윤주형 기자 21jemin@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>2016년 제주도 최우수 공영관광지는 '4.3평화공원' &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 2016년 제주도 최우수 공영관광지는 '4.3평화공원' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 2016년 제주도 최우수 공영관광지는 '4.3평화공원' 기자명 이승록 기자					(leerevol@naver.com) 입력 2016.12.22 11:31 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 2016년 제주도 최우수 공영관광지로 4.3평화공원이 꼽혔다.제주도는 '공영관광지 운영평가위원회' 심의를 거쳐 제주4․3평화공원 등 2016년도 우수 공영관광지 8곳을 선정했다고 22일 밝혔다.지난 19일 공영관광지 운영평가위원회 회의에서 2016년 공영관광지 운영평가 결과에 대해 심의한 결과 최우수 관광지로 제주4․3평화공원이 선정됐다. 우수 관광지로는 절물자연휴양림, 제주해녀박물관, 장려는 민속자연사박물관, 항몽유적지, 한라산국립공원, 현대미술관, 제주별빛누리공원 등 5곳이 선정됐다.이번 평가는 6월부터 11월까지 제주도관광협회에 위탁해 진행했다. 환대서비스, 시설이용편의성 등에 대해 공영관광지 운영평가 위원이 직접 참여해 암행평가(40%)와 현장평가(30%)를 실시하고, 전문 리서치 기관에 의뢰해 관광객 대상 설문조사(30%)를 진행했다. 우수관광지로 선정된 곳에 대해서는 22일 제주관광인 송년의 밤 행사에서 최우수 관광지에 200만원, 우수 관광지에 각 150만원, 장려상을 수상한 관광지에는 각 100만원의 상금을 전달할 계획이다 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 ‘윈터페스티벌’ 개최, 중문 관광단지와 흑돼지 맛집 다니기 좋아 &lt; 비즈 &lt; 기사 &lt; Food &lt; 기사본문 - 소믈리에타임즈 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 2022-10-11 12:20 (화) 로그인 로그인 회원가입 전체메뉴 버튼 Wine Food Drink Life People TV 칼럼 미수입 와인 행사/Event 전시/박람회 기사검색 검색 실시간 랭킹 1 [금주의 주류 신상] 10월 첫째주 2 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 3 와인 경험 플랫폼 winepp, 첫 와인 플리마켓 '와이넵 피크닉' 개최 4 웨일스 축구 간판 스타 '가레스 베일', 자신만의 맥주 출시 5 내면을 그리는 박지영 작가, 갤러리 너트에서 개인전 개최 6 전통주갤러리, 문화와 역사가 함께하는 '10월의 시음주' 소개 7 “포도밭 글램핑부터 액티비티 명소까지” 호주관광청, 온전한 자연을 즐길 수 있는 오프그리드 여행지 소개 8 미쉐린 가이드 서울 2023, 57개 빕 구르망(Bib Gourmand) 리스트 발표 9 제9회 한국와인대상 품평회 성료, “한국와인, 이제는 세계로 나아갈 때” 10 프리미엄 캔와인 '웨스트와일더', 안정환 &amp; 이혜원 부부와 콜라보한 스페셜 에디션 선보여 더보기 본문영역 이전 기사보기 다음 기사보기 제주도 ‘윈터페스티벌’ 개최, 중문 관광단지와 흑돼지 맛집 다니기 좋아 본문 글씨 줄이기 본문 글씨 키우기 바로가기 다른 공유 찾기 스크롤 이동 상태바 현재위치 홈 Food 기사 기자명 이지선 기자 입력 2016.12.26 16:02 제주도 ‘윈터페스티벌’ 개최, 중문 관광단지와 흑돼지 맛집 다니기 좋아 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 기사스크랩하기 메일보내기 닫기 제주도와 제주관광공사는 겨울을 맞아 관광객이 각종 체험을 즐길 수 있는 '2017 제주 윈터페스티벌'을 개최하고 있다.1월 22일까지 진행되는 이번 행사는 한라산 어리목일대, 중문 플레이케이팝 서쪽화단, 제주관광공사 중문 내국인 면세점, 제주 칠성로 상점가 등에서 이뤄지며 제주관광의 체험거리를 제공한다.중문관광단지는 여미지식물원, 천제연폭포, 테디베어뮤지엄 같은 볼거리가 많고 주상절리와 서귀포 앞바다가 펼쳐져 천혜의 자연을 볼 수 있다. 다양한 볼거리의 중문 관광을 마쳤다면 흑돼지를 맛보길 추천한다.제주도 토종 흑돼지는 제주도에서만 맛볼 수 있는 음식으로 작은 몸집에 까만 털이 특징이다. 제주 토종 흑돼지는 일반돼지에 비해 성장 속도가 느리지만 영양소가 풍부해 맛과 건강에 좋다.제주도 흑돼지는 흰 돼지에 비해 불포화지방산의 비율이 높고 근내 지방이 약 10배 정도 높기 때문에 고소한 맛을 선사한다. 흑돼지를 구울 때 기름이 잘 녹는다는 것이 이러한 이유인데, 풍미가 대단하다. ▲ 제주도 흑돼지는 고소한 맛을 선사하고 구울 때 기름이 잘 녹아 풍미가 대단하다 &lt;사진=서민흑돼지&gt;제주도 중문 흑돼지 맛집인 ‘서민흑돼지’에서는 흑돼지 삼겹살을 맛볼 수 있다. 이 곳은 제주도흑돼지만을 사용하며 흑돼지만의 고소함을 느낄 수 있다. 고기는 도톰한 식감과 고소한 향이 일품이며 직접 제조한 멸치젓 소스에 찍어 먹을 수 있다.또한 서귀포 앞바다를 볼 수 있는 조망을 확보해 풍경을 즐기며 식사하기 좋다. 화력이 세고 불순물이 제거된 비장탄 참숯만 사용하기 때문에 깨끗한 고기의 맛을 느낄 수 있다.한편, ‘서민흑돼지’는 주차공간이 넓고, 중문관광단지와 제주신라호텔,제주롯데호텔 5분, 오설록과 차로 15분거리에 있다. 따라서 오설록과 중문흑돼지 맛집을 함께 즐길 수 있다.소믈리에타임즈 이지선기자 jslee@sommeliertimes.com 이지선 기자 jslee@sommeliertimes.com 다른 기사 보기 기사공유 저작권자 © 소믈리에타임즈 무단전재 및 재배포 금지 관련기사 마음을 담은 의미있는 와인으로 연말연시 선물을...! 송년·신년 모임, 국내산 치즈로 맛있게...단백질, 칼슘 풍부한 치즈... 와인 안주, 간식용으로 제격 [김세한의 서양요리] &lt;9&gt; 애피타이저(Appetizer), 구운두부에 얹은 밀쌈과 각종 채소(Griller Tofu with Milssam and Assorted Vegetables) 중국 최대 전자상거래 기업 알리바바가 운영하는 Tmall.com 선정 TOP10 와인 리스트 공개 [와구맨] 와인으로 당신의 입(口)을 적시는 남자. #7. 집에서 즐기는 와인, 스월링 해보기 [와인! click] 연말연시 정조준! 12월 출시 와인! 마주앙, 돔페리뇽, 모엣&amp;샹동까지 총 14종 최신뉴스 제1회 보틀샤크 그랜드 테이스팅 (장소:와인소셜) [기고-최염규발행인] 달라진 소믈리에들의 위상...세상에 공짜는 없다. 실력을 키워라. 일을 즐겨라! 보틀샤크 와인 그랜드 테이스팅, "고급화와 다양성에 초점" [오늘의 추천] 션 태커리 오리온 1997 현업에서 활동중인 소믈리에들 모습 포토뉴스 제1회 보틀샤크 그랜드 테이스팅 (장소:와인소셜) [기고-최염규발행인] 달라진 소믈리에들의 위상...세상에 공짜는 없다. 실력을 키워라. 일을 즐겨라! 보틀샤크 와인 그랜드 테이스팅, "고급화와 다양성에 초점" [오늘의 추천] 션 태커리 오리온 1997 인기뉴스 1 [금주의 주류 신상] 10월 첫째주 2 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 3 와인 경험 플랫폼 winepp, 첫 와인 플리마켓 '와이넵 피크닉' 개최 4 웨일스 축구 간판 스타 '가레스 베일', 자신만의 맥주 출시 5 내면을 그리는 박지영 작가, 갤러리 너트에서 개인전 개최 6 전통주갤러리, 문화와 역사가 함께하는 '10월의 시음주' 소개 7 “포도밭 글램핑부터 액티비티 명소까지” 호주관광청, 온전한 자연을 즐길 수 있는 오프그리드 여행지 소개 8 미쉐린 가이드 서울 2023, 57개 빕 구르망(Bib Gourmand) 리스트 발표 오늘의 추천 [오늘의 추천] 션 태커리 오리온 1997 "와인메이커로서 나의 유일한 목적은 즐거움을 만드는 것" [오늘의 추천] 라포스톨, 르 쁘띠 끌로 아팔타 2018 칠레에서 21세기의 가장 위대한 콜드 빈티지 중 하나로 기억될 것 [오늘의 추천] 알람브레 모스카텔 드 세투발 2017 대한민국 주류대상 주정강화 와인부문 대상 3회 수상 인기 키워드 샴페인 미수입 와인 전통주 시음회 프랑스 양재혁 소믈리에 허브노트 미수입 와인 DOMAINE RICARDELLE DE LAUTREC, SAUVIGNON MARIN CUVEE RICARDELLE White Wine 와인리뷰 [알면 더 맛있는] 벨 꼴레(Bel Colle) 와인, 바롤로에 뿌리를 둔 떠오르는 신성 벨 꼴레 랑게 DOC 파보리타 2020, 벨 꼴레 바르바레스코 DOCG 빠요레 2018 [알면 더 맛있는] 라 크레마, "와인의 명성은 만들어지는 것이 아닌 얻어지는 것이다" 라 크레마 소노마 코스트 샤도네이, 피노 누아 2종 [알면 더 맛있는] 나파밸리의 이탈리안 해리티지 와인, '카모미' 4종 '카모미(Ca’Momi)' 4종 Photo [기고-최염규발행인] 달라진 소믈리에들의 위상...세상에 공짜는 없다. 실력을 키워라. 일을 즐겨라! 보틀샤크 와인 그랜드 테이스팅, "고급화와 다양성에 초점" 오스트리아 와인 업계, 2022 빈티지 “수확량은 적지만 훌륭한 품질의 포도 예상” 2022 월드 베스트 바, '바르셀로나 파라디소(Paradiso)' 1위 차지 행사/EVENT 시음회 이탈리안 이노베이션 Italian Innovation 10월 27일 PM 7시 ~ 9시, 에프터 나인 앤 와인 품평회 2022년 제9회 한국와인대상 9월 30일, 영동와인터널, 10월 6일 시상식 축제 및 페스티벌 JW 메리어트 동대문 2022 와인 앤 버스커 10월 1일~3일, JW 메리어트 동대문 축제 및 페스티벌 2022 광명동굴 대한민국 와인페스티벌 9월 30일~10월 3일, 광명동굴에서 개최 축제 및 페스티벌 청라 뮤직 &amp; 와인 페스티벌 9월 24일~25일, 청라호수공원 야외음악당 일대 전시 및 박람회 주류 베를린 바 컨벤트 2022(Bar Convent Berlin 2022, BCB) 2022년 10월 10일(월)~12일(수), Exhibition Centre Berlin 와인 프로바인(Prowein) 2023 2023년 3월 19일~23일, 독일 메쎄 뒤셀도르프(Messe Dusseldorf) 주류 2022 남도 전통주 품평회 수상작 특별전 8월 25일~28일, 전통주갤러리 주류 2022 서울바앤스피릿쇼 9월 15일~17일, 코엑스 3층 D홀 와인 2022 '대전국제와인페스티벌' 대전컨벤션센터(DCC), 8월 26일~28일 인기기사 [금주의 주류 신상] 10월 첫째주 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 와인 경험 플랫폼 winepp, 첫 와인 플리마켓 '와이넵 피크닉' 개최 웨일스 축구 간판 스타 '가레스 베일', 자신만의 맥주 출시 내면을 그리는 박지영 작가, 갤러리 너트에서 개인전 개최 론칭 및 프로모션 기사 올빈와인, 뻐꾸기 골프 TV '불사조' 박노준 대표와 콜라보한 ‘네버다이(Never Die)’ 와인 출시 호주 와인 윈즈(Wynns), 페어링을 위한 미디움 바디 와인 4종 국내 론칭 [김대리가 소개한다] 붉은 단풍의 계절, 가을에 즐기는 대표 '샤또뇌프 뒤 빠프 와인' 추천 230년 역사의 프랑스 샴페인 명가, '슈를랭(Champagne Cheurlin)' 캘리포니아 와인 업계 혁신의 대명사 '션 태커리'의 숨겨진 보석 5종, 국내 최초 공개 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울시 성동구 성수이로 24길 50 희은빌딩 별관4층 대표전화 : 02-499-0110 팩스 : 02-461-0110 청소년보호책임자 : 최염규 법인명 : 씨앤제이글로벌 제호 : 소믈리에타임즈 등록번호 : 서울 아 03477 등록일 : 2014년 12월 10일 발행일 : 2015년 3월 13일 발행인 : 최염규 편집인 : 김동열 소믈리에타임즈 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 소믈리에타임즈. All rights reserved. mail to stpress@sommeliertimes.com 위로 전체메뉴 전체기사 Wine Food Drink Life People 오늘의 추천 미수입와인 행사/EVENT 전시 및 박람회 와인리뷰 포토갤러리 로그인 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[기고] 제주도는 제주관광공사 왜 만들었는가? &lt; 기고 &lt; 오피니언 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 [기고] 제주도는 제주관광공사 왜 만들었는가? 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 오피니언 기고 [기고] 제주도는 제주관광공사 왜 만들었는가? 기자명 양인택					(news@jejusori.net) 입력 2016.12.26 10:32 댓글 7 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주관광의 공적(公的)기능 강화로 제주지역경제 활성화에 기여함과 예산, 인력의 효율성 확보와 관광업무의 통합마케팅을 통한 제주사회의 공익 창출을 위해 관광공사를 설립했다.관광분야 전문기관으로서 제주관광 홍보사업의 공신력 확보와 통합된 관광마케팅을 주도적으로 일관성 있는 집행을 위함이다. 이는 민간사업자 단체인 제주도관광협회가 맡아 추진해오면서 회원사 위주의 운영에 의해 사익 창출이 되고 있다는 지적이 감안됐다.관광공사의 주요업무는 국내외관광객 유치 통합마케팅 사업, 국내외 홍보사무소운영(홍보안내서비스 통합), 관광개발, 관광수용환경 개선, 면세점 운영 등이다.국내외 마케팅업무의 통합은 현행 기관과 민간사업자 단체에서 집행되고 있는 사업을 제주도의 기본적 구상에 의해 관광공사가 방향을 설계하고 주도적인 위치에서 타 기관 및 단체가 간접적으로 참여하는 시스템이다. 또한 국내외홍보사무소 운영(홍보안내서비스 통합)은 현재 민간사업자 단체인 관광협회가 맡고 있는 국내외 홍보사무소를 관광공사가 운영한다는 것이다.지금도 유사사업 중복 추진은 제주관광공사가 출범한 지 8년이 지나도 크게 달라진 게 없는 실정이다. 세비낭비 기구를 하나 더 만든 결과가 돼 예산낭비, 인력낭비, 시간낭비는 여전하다.제주도가 관광공사가 공익업무보다 면세점 운영에 치중하게 하도록 수수방관한다면 공기관서의 의무와 책임을 회피하게 만드는 걸로 인식돼 도민사회의 비난 여론을 자초하게 될 것이다.왜냐하면 관광홍보, 관광통계, 관광안내소 운영에 대해 작년 2월 하순에서 3월까지 실시한 도민대상 설문조사에서 661명 중 94~96%가 현재 시행주체를 변경해야 한다고 응답해 민간사업자 단체인 관광협회가 추진하는 것에 대해 매우 불신하는 것으로 나타났다.특히 관광안내소는 세비인 공적자금이 전액 투입되고 있음에도 관광협회 회원사 위주 운영으로 사익창출이 돼서 이의 운영에 대한 개선을 요구하고 있다.이와 더불어 IT에 시대에 맞는 안내시스템 운영으로 도내 사업자 전체적인 안내로 공익을 창출해야 한다는 의견이 나타났다. 또 보조금 지원은 사업집행에 대한 평가기준을 마련해 예산집행의 실효성을 거둘 수 있도록 사후관리의 철저, 사업 위탁의 원칙이 필요하다는 의견이 지배적이었다.관광통계, 관광홍보, 관광안내소 운영을 어디서 맡아야 하는 질문에 94~96%가 “중립적인 공기구”에서 맡아야 한다고 말한 배경에는 민간사업자 단체인 관광협회의 집행이 공정성 상실, 공신력 실추, 사익창출로 인한 공익부재 등의 문제를 인식하고 있기 때문으로 풀이된다.이런 상황에 민간사업자 단체인 관광협회에 왜 공무원을 파견하는가. 도대체 누구를 위해, 무엇을 위해서 공무원을 파견하는 것인가. 공기업인 관광공사에 공무원을 파견치 못하는 실정임을 감안하면 철수해야 한다.관광객이 몇 천 만명이 온다 한들 무슨 소용이 있겠는가. 제주지역의 전체적인 경제적 발전 효과를 거둘 수 있는 정책과 사업집행의 뒷받침 돼야 한다. 이를 위해서는 관광홍보, 관광안내소 운영 등은 공신력과 공익이 확보되도록 보조금 사업의 평가 강화와 기관, 단체의 기능에 부합된 업무를 우선적으로 정립돼야 한다.제주도가 사업을 위탁할 경우 관광분야는 관광공사가 주도하고, MICE는 컨벤션센터와 컨벤션뷰로가 주도하는 틀에서 관련기관·단체는 간접적 참여의 시스템을 수립해야 한다. ▲ 양인택. ⓒ제주의소리 제주도의회는 정치적 논리보다 도민사회의 공익과 공정한 사업 추진 환경을 만드는데 좌고우면 해야지 도의원의 입장과 사사로운 관계 등을 좌고우면해서는 안 된다. 또 공신력 확보를 통한 제주사회의 발전에 기여할 수 있도록 하는 공익사업 및 예산의 적정성과 효율적 집행 등의 타당성을 심도 있게 심의해야 한다.이제 5일 후면 2017년도 새해를 맞이하게 된다. 정유년 새해는 공익사업이 올바르게 집행되도록 제주도가 사업의 객관적이고 엄정한 평가시스템에 의한 집행을 확보하는 등의 효과적인 추진을 통해 도민사회의 정책신뢰도를 향상시키는데 진력해야 한다. / 사단법인 제주관광진흥회 사무총장 양인택 양인택 news@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 2016년 하반기 우수관광사업체 지정 &lt; 종합 &lt; 지역뉴스 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 지역뉴스 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 종합 제주시 서귀포시 읍면동 농사정보 본문영역 이전 기사보기 다음 기사보기 제주도 2016년 하반기 우수관광사업체 지정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 지역뉴스 종합 제주도 2016년 하반기 우수관광사업체 지정 기자명 윤주형 기자 입력 2016.12.20 17:04 수정 2016.12.21 10:55 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도가 2016년 하반기 우수관광사업체 8개 업체를 지정했다.도는 우수관광사업체 신청업체에 대한 심사 등을 통해 신청업체 21개 가운데 관광지, 숙박, 여행업, 음식 4개 분야 8개 업체를 선정했다.이번에 우수관광사업체로 지정된 업체는 내년 1월1일부터 2018년 12월31일까지 우수관광사업체로 지정된다.우수관광사업체 8개 업체는 우수관광사업체 지정서 및 인증패와 홍보지원금 70만원을 받고, 도 관광정보시스템 및 유관기관 홈페이지, 팸투어 등 SNS, 리플릿, 지도 등 홍보물을 통한 홍보 인센티브 혜택을 받는다.다음은 우수관광사업체△관광지 ㈜제이콥씨앤이 헬로키티아일랜드, ㈜이레포니밸리공연장, ㈜메이즈랜드 △숙박 늘송파크텔, ㈜포시즌호텔 △여행업 ㈜천지관광 △음식 문동일셰프녹차고을, 중문덤장. 윤주형 기자 윤주형 기자 21jemin@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 중문관광단지 내 부영호텔 건축허가 신청 모두 '반려' : 100세시대의 동반자 브릿지경제 로그인 회원가입 검색창 닫기 전체 메뉴 산업 금융 증권 부동산 생활경제 정치 전국 오피니언 l 비바100 피플 문화·연예 전체기사 Health(건강) Encore Career(일) Money(돈) Leisure(여가) Life(라이프) Education(교육) Welfare(복지서비스) 사설 칼럼 외부기고 비주얼 포토 카드뉴스 세상에 이런일이 스포츠 이모저모 연예·뮤직비디오 IT / 산업 라이프 사회 뉴스 산업·IT·과학 기업경영·재계 자동차·부품·타이어 전기·전자·반도체 항공·해운·물류·무역 조선·철강·기계금속·방산 석유화학·정유·가스·전력 섬유·제지·광고·건자재 IT·모바일·방송통신·인터넷 게임·SW·포털·제약·바이오·과학 중견·중소·벤처 경제일반 경제일반 통상 공기업 경제정책 금융 정책 은행 보험 제2금융 외환 재테크 증권 정책 종목분석 투자전략 시황·증시분석 증권가 브리핑 해외 증시 부동산 분양정보 경매 부동산 칼럼 부동산 뉴스 건설산업 뉴스테이 정치·정책 정책 정치일반 청와대 국회·정당 외교·통일 생활경제 유통 식음료·주류 주거·생활 패션·뷰티·화장품 프렌차이즈 창업 중견·중소·벤처 사회 사회일반 노동·환경 교육·행정 사건·사고 법원·검찰 국방 국제 국제일반 국제경제 토픽 헬스 의료 생활건강 식품의약품 보건복지 피플 인터뷰 인사 동정 부음 社告 문화 영화 이슈&amp;이슈 음악 축제 전시 연극·뮤지컬 Book 라이프스타일 방송·연예 문화배우기 정책 웹툰 여행·취미 여행 취미 레저 스포츠 스포츠 종합 골프 축구 야구 격투기 농구·배구 전국 서울·수도권 강원 충청 영남 호남 제주 오피니언 사설 칼럼 데스크칼럼 새문안通 기자수첩 원 클릭 時事 외부기고 브릿지칼럼 명의칼럼 전문가 기고 시장경제칼럼 비바100 건강 일 돈 여가 라이프 교육 복지서비스 비주얼 포토 카드뉴스 동영상 세상에 이런일이 스포츠 이모저모 연예·뮤직비디오 IT / 산업 라이프 사회 회사소개 회사소개 조직도 찾아오시는길 회원약관 개인정보취급방침 이메일무단수집거부 신문구독신청 검색버튼 산업 금융 증권 부동산 생활경제 정치 전국 오피니언 비바100 피플 문화·연예 검색창 닫기 전체기사ㅣ분양정보 ㅣ 경매 ㅣ 부동산 칼럼 ㅣ 부동산 뉴스 ㅣ 건설산업 ㅣ 뉴스테이 현재위치 : 홈 &gt; 뉴스 &gt; 부동산 &gt; 부동산 뉴스 제주도, 중문관광단지 내 부영호텔 건축허가 신청 모두 '반려' 입력 2016-12-14 14:40 연관검색어 부영 제주도 중문관광단지 호텔 건축신청 반려 제주도가 ‘경관 사유화’ 논란을 빚은 제주 중문관광단지 내 대규모 부영호텔 건축허가 신청을 모두 반려했다. 지난 10월 제주도의회 도민의방에서 천연기념물 제443호로 지정된 중문·대포해안 주상절리대 인근 4개 마을 주민 대표들이 중문관광단지 부영호텔 2단계 건설사업 취소를 요구하고 있다.(연합)제주도가 ‘경관 사유화’ 논란을 빚은 제주 중문관광단지 내 대규모 부영호텔 건축허가 신청을 모두 반려했다.제주도는 14일 ㈜부영주택이 지난 2월 건축허가를 신청한 서귀포시 중문관광단지 2단계 지역 부영호텔 4건(호텔 2, 3, 4, 5)을 모두 반려했다고 밝혔다.한국관광공사로부터 해당 부지를 매입한 부영주택은 지난해 9월부터 12월까지 다섯 차례에 걸친 건축·교통통합심의를 통과해 건축허가를 신청했다. 그러나 중문관광단지 전체 개발사업자인 한국관광공사의 위법 행위로 발목을 잡혔다.한국관광공사는 1996년 8월 중문관광단지 2단계 지역 개발사업승인을 받은 이후 2001년 3월 개발사업 변경 신청을 하며 건축물 높이를 ‘5층 이하’에서 ‘9층 이하’로 변경한 사항을 명시하지 않고, 건축물 높이 변경에 따른 환경영향 저감 방안을 제시하지 않았다.이 같은 사실을 확인한 제주환경운동연합이 “사업계획 변경 승인 과정에서 반드시 거쳐야 할 절차인 환경영향평가 변경협의를 거치지 않은 본 사업의 개발사업시행 변경 승인은 원천 무효”라고 주장하며 제주도 감사위원회에 감사를 요청했다.도 감사위는 이 사안을 조사해 환경영향평가법에 따른 협의 내용 절차를 이행하는 방안을 마련하라고 처분했고, 도는 지난 10월 20일 한국관광공사에 절차 이행을 요구했다.이에 부영주택의 부영호텔 4건은 한국관광공사가 건축물 높이 변경에 따른 환경보전방안을 마련해 도와 변경협의를 마친 뒤 다시 건축허가를 신청해야 하는 상황에 놓였다.그러나 제주환경운동연합은 천연기념물 제443호로 지정된 주상절리 해안의 부영호텔 허가 자체를 전면 재검토해 도가 사업부지를 인수해 도민에게 돌려 달라고 요구하고 있다.또 사업부지 주변 4개 마을 주민이 경관을 침해하는 부영호텔 건설을 전면 취소해 줄 것을 요구하고 있어 사업 추진에 가시밭길이 예고돼 있다.한편 건축신청에 따르면 부영호텔2는 지하 4층, 지상 9층, 400실 규모다. 부영호텔3은 지하 5층, 지상 8층, 300실 규모고, 부영호텔4는 지하 5층, 지상 9층, 300실 규모다. 부영호텔5는 지하5층, 지상 8층, 380실 규모다.김동현 기자 gaed@viva100.com 기자의 다른기사보기 &gt; 이 기사에 댓글달기 댓글 접기 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 온라인 핫클릭 ·누가 뭐래도 갓병헌! "감독님 그때 저에게 왜 그러셨어요?"·8년 만에 BIFF 방문한 진가신 감독 "영화감독이 아닌 삶은 상상할 수 없다"·‘그랜드 엑스페디션’ 정인석 프로듀서 “우리 창작진이 꾸린 이머시브 다이닝도 선보이고 싶어요!”·"자녀와 '상호작용'하면 5분 놀아줘도 1시간 효과"·은퇴 초반 철칙… 노후자금 수익률 높이고 인출은 줄여라·직장인 대상 '토론 프로그램'…지식 쌓고, 소통·분석 능력↑ 스포츠 월드 ·KLPGA 투어 1인자 박민지, 여자 골프 세계 랭킹 16위·김주형, PGA 투어 슈라이너스 칠드런스 오픈 ‘노보기’ 우승…두 달 만에 통산 2승·김세영, LPGA 투어 메디힐 챔피언십 7위·‘1인자’ 박민지, KLPGA 투어 하이트진로 챔피언십서 연장전 끝에 우승·김영수, 코리안 투어 제네시스 챔피언십서 역전 우승…107번째 출전 만에 첫 승·김세영·강혜지, LPGA 메디힐 챔피언십 3라운드 공동 13위…‘톱 10’에 한국 선수 들지 못해 김규리, 완벽 옆태 아이즈원 출신 이채연, ‘허쉬 러쉬’ 첫 콘셉트 포토 공개…12일 솔로 데뷔 체리블렛 채린, ‘슈룹’ 출연 확정…김혜수 과거 시절 연기 정시아, ‘이츠 마이 라이프’ MC 발탁…“일상 속 정보 전달” YG엔터, 제니 사진 유출 관련 ‘법적 대응’…“경찰에 수사 의뢰” 기획시리즈 ESG 경영이 미래다 “순환경제가 탄소중립 현실적 해결 방안…신기술로 새시장 개척해야” KT&amp;G, 지구온도 낮추는 녹색경영… 지속가능한 생태계 키운다 이희연 KT&amp;G ESG기획팀장 "객관적 성과 측정… 이해관계자 소통 강화할 것" 人더컬처 8년 만에 BIFF 방문한 진가신 감독 "영화감독이 아닌 삶은 상상할 수 없다" 장동윤이 영화 '늑대사냥'에 미친 이유! 염정아에게 춤과 노래란? 맘 with 베이비 "자녀와 '상호작용'하면 5분 놀아줘도 1시간 효과" 광명시의회 안성환 의장 “경력단절 없도록… 육아휴직 대체인력 지원 늘려야” "밤 오줌 못 가리는 아이, 실수해도 야단치지 마세요" 직장인 2막 직장인 대상 '토론 프로그램'…지식 쌓고, 소통·분석 능력↑ 실패땐 복직 보장… 창업, 걱정 말고 도전하세요 농작물 재해 손해평가… 2차 합격률 20%대 '좁은문' 스타트업 "더 빠르고 정확하게"… 심정지 환자 소생률 높인다 컴투스 창업자의 새로운 도전… "해긴은 모두가 행복한 게임회사를 꿈꿉니다" "인테리어는 곧 공간에 대한 이해… 건축주 니즈 최선" 열정으로 사는 사람들 윈골드 류홍열·김탁종 대표 “金거래시장 틈새 발견… 변호사 둘이 일냈죠” "건설일용직도 모바일 매칭… 새벽 줄서기 없앴죠" 창업 생존율 확대…실습·실무 '창업교육' 나선 넥스트랩 김진태 대표 테크리포트 현존 최고 자물쇠 채워라!… 국내 이통사 '양자암호통신' 개발 경쟁 10분 이상 버텨라! 불에 강한 단열재 생산 불붙었다 K수소 무한 확장… 블루수소 만들고 UAM 띄운다 안종배 회장의 인공지능과 메타버스 미래세상 "세계가 주목하는 메타버스 리더, 누구나 될 수 있죠" 우리는 메타버스 시대에 살고 있다 메타버스, 미래 핵심기술 선도한다 스마트 라이프 ‘뉴 스페이스’ 시대 성큼… 제약·바이오도 우주 시장 ‘눈독’ "학습자 누구나 시험 합격때 수강료 100% 환급해드려요" "수하물 탑재 완료됐어요"…AI 챗봇이 다 알려드려요 많이본뉴스 최신뉴스 이시각 주요뉴스 코로나19 신규 확진자 1만5476명…사망자 91일만에 최소 코스피, 장 초반 2%대 하락…2200선 붕괴 [대통령의 한마디] "담대한 구상, 비핵화 이끌어 내기에 유효 할 것" 글로벌 경제위기에 국민연금 올해 상반기 적자 77조원… “투자다변화 전략 필요” 한경연 “법인세율 3.3%p 인하하면 GDP 10년간 연평균 1.4%↑” 3분기 단기사채 자금조달 250.9조…전년比 22.2%↓ 창립 70주년 맞은 한화…김승연 회장 "지속적 혁신" 주문 올해 아울렛서 화재 세 차례…노동부, 대규모 유통업체 불시점검 [오늘의 1면] 아파트 매매가·전세가 급락세··· 부동산 지표 '사상 최악' 러시아 미사일공습에 삼성 입주건물 피해…삼성 “직접 피격 아냐” TODAY TOPIC 1 2 공효진·케빈오, 12일 미국 뉴욕서 비공개 결혼식 “변명의 여지 없어” 신혜성, 음주운전 사과…차량 절도는 아냐 반환점 돈 영화제, 폐막까지 D-3… 올해 부국제는 어땠나? 선우은숙, 4세 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” '죽음 권하는 사회', 영화 '플랜75'가 주는 리얼함 8년만에 BIFF 찾은 진가신 "영화감독이 아닌 삶은 상상할 수 없다" “우리 창작진이 꾸린 이머시브 다이닝도 선보이고 싶어요” 누가 뭐래도 갓병헌! "감독님 그때 저에게 왜 그러셨어요?" 뉴스 산업·IT·과학 기업경영·재계 자동차·부품·타이어 전기·전자·반도체 항공·해운·물류·무역 조선·철강·기계금속·방산 석유화학·정유·가스·전력 섬유·제지·광고·건자재 IT·모바일·방송통신·인터넷 게임·SW·포털·제약·바이오·과학 중견·중소·벤처 경제일반 경제일반 통상 공기업 경제정책 금융 정책 은행 보험 제2금융 외환 재테크 증권 정책 종목분석 투자전략 시황·증시분석 증권가 브리핑 해외 증시 부동산 분양정보 경매 부동산 칼럼 부동산 뉴스 건설산업 뉴스테이 정치·정책 정책 정치일반 청와대 국회·정당 외교·통일 생활경제 유통 식음료·주류 주거·생활 패션·뷰티·화장품 프렌차이즈 창업 중견·중소·벤처 사회 사회일반 노동·환경 교육·행정 사건·사고 법원·검찰 국방 국제 국제일반 국제경제 토픽 헬스 의료 생활건강 식품의약품 보건복지 피플 인터뷰 인사 동정 부음 社告 문화 영화 이슈&amp;이슈 음악 축제 전시 연극·뮤지컬 Book 라이프스타일 방송·연예 문화배우기 정책 웹툰 여행·취미 여행 취미 레저 스포츠 스포츠 종합 골프 축구 야구 격투기 농구·배구 전국 서울·수도권 강원 충청 영남 호남 제주 오피니언 사설 칼럼 데스크칼럼 새문안通 기자수첩 원 클릭 時事 외부기고 브릿지칼럼 명의칼럼 전문가 기고 시장경제칼럼 비바100 건강 일 돈 여가 라이프 교육 복지서비스 비주얼 포토 카드뉴스 영상 영상 세상에 이런일이 스포츠 이모저모 연예·뮤직비디오 IT·산업 라이프 사회 회사소개 회사소개 조직도 찾아오시는길 회원약관 개인정보취급방침 이메일무단수집거부 신문구독신청 회사소개 | 조직도 | 찾아오시는길 | 회원약관 | 개인정보취급방침 | 이메일무단수집거부 | 신문구독신청 | 저작권 규약 | 청소년보호정책 | 원격지원 | 고충처리인 | 윤리강령 및 기자준칙 서울특별시 종로구 새문안로5길 13, 9층(당주동, 변호사회관) / 인터넷신문등록번호 : 서울,아03028 / 등록일자 : 2014년 3월 3일 / 제호 : 브릿지경제신문 / 발행인·편집인 : 김현수 / 청소년보호책임자 : 조진래 / TEL : 02-2070-0200 l FAX : 0303)0952-0200 / 한국신문협회, 한국온라인신문협회 회원사 / 매체사 자체 윤리 강령, 규제 제도에 의해 윤리강령을 준수합니다. / 인터넷신문위원회 자율심의 준수서약사 Copyright by Bridgenews Co.,Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>제주도 관광객 1500만 명 첫 돌파…부작용은 과제로 | JTBC 뉴스 서비스 메뉴 바로가기 본문 바로가기 아티클 바로가기 프로그램 목록 바로가기 신문 중앙일보 중앙SUNDAY 일간스포츠 Korea Joongang Daily The Korea Daily 조인디 방송 JTBC JTBC2 JTBC GOLF&amp;SPORTS JTBC4 JTBC GOLF JTBC worldwide 멀티플렉스 &amp; 레저 메가박스 필름 소사이어티 클래식 소사이어티 휘닉스 호텔앤드리조트 휘닉스 평창 휘닉스 섭지코지 매거진 &amp; 출판 월간중앙 이코노미스트 포브스코리아 중앙북스 엘르 바자 코스모폴리탄 에스콰이어 전문 콘텐트 조인스랜드 헬스미디어 차이나랩 어문연구소 영어의 신 ESU 서비스 JOINS PRIME 썰리 fol:in JTBC NOW JTBC NEWS OOH MEDIA 중앙멤버십 JJ라이프 렛츠고시골 TJ4대전충청 CLOSE JTBC2 JTBC GOLF&amp;SPORTS JTBC4 JTBC GOLF 중앙그룹 브랜드 회원가입 로그인 JTBC 뉴스 방송 편성표 JTBC JTBC2 JTBC GOLF&amp;SPORTS JTBC4 JTBC Golf 온에어 검색열기 키워드 검색하기 닫기 뉴스홈 속보 정치 경제 사회 국제 문화 연예 스포츠 날씨 다시보기 JTBC 뉴스룸 아침&amp; 썰전 라이브 정치부 회의 보도특집 오픈 저널리즘 타임라인 이슈 VOD 이슈 기자 구독 뉴스제보 JTBC SNS 여론조사 JTBC 뉴스룸 VOD 다시보기 AOD 다시듣기 팩트체크 밀착 카메라 비하인드+ 월페이퍼 카드뉴스 영상구성 랭킹 APP 제보하기 제주도 관광객 1500만 명 첫 돌파…부작용은 과제로 입력 2016-12-14 09:46 크게 작게 프린트 메일 URL 줄이기 페이스북 트위터 복사 URL 줄이기 레이어 닫기 [앵커]제주도를 찾은 관광객이 올해 1500만 명을 넘어섰습니다. 사상 처음인데요. 사람들이 많이 찾아서 경제에 큰 도움이 되고 있지만, 부작용도 함께 늘고 있다고 합니다.최충일 기자입니다.[기자]제주항 크루즈 부두에 10만 톤이 넘는 대형 크루즈가 들어옵니다올들어 제주를 찾은 관광객은 지난 9일까지 1501만여 명으로 집계됐습니다.사상 처음 1500만 명을 넘어선 관광객 중 외국인은 343만여 명으로 전 년 보다 38%나 늘었습니다.특히 크루즈를 이용해 제주에 온 사람들이 지난해의 배 가까이로 증가해 전체 관광객 규모를 키웠습니다.한 번 오면 3박 4일 정도 머물기 때문에 하루 평균 15만 명의 관광객이 제주에 체류하는 셈입니다.하지만 제주도민들은 마냥 웃을 수 없는 상황입니다[박선하/제주시 연동 : 면세점으로 바로 들려서 저녁 드시고 아이쇼핑만 하고 그냥 가시는 그런 분위기기 때문에 저희 소상공인들은 매우 어렵습니다.]렌터카가 10년 전에 비해 5배로 늘면서 교통체증이 심해지고 쓰레기도 한계 수준에 달했습니다.특히 불법체류자와 외국인 강력범죄는 가장 심각한 문제입니다. 제주도는 관광객 증가로 인한 부작용 해결을 위해 관광객총량제나 입도세 등의 도입을 검토하고 있습니다. 관련기사전국에 퍼진 AI, 역대 최대 전망…닭고기 매출도 '뚝' 제주 해녀, '인류 유산'으로…유네스코 무형유산 등재 제주 감귤 첫 산지 전자경매…농가 유통비 절감 기대 제주도, 연 관광객 1500만 시대…쓰레기 처리 '비상' 취재촬영 최충일 / 중앙일보 기자 | 해당 기자의 기사 구독신청 구독해지 이 기자가 쓴 다른 기사 보기 : 제주 오픈카 사망 항소심, 살인 '무죄' 음주운전 치사 '유죄' JTBC 제주 주재 기자 최충일입니다. 아름다운 제주도의 진면목을 보여드리는데 최선을 다하겠습니다. 이메일 문석빈 / 영상취재팀 기자 | 해당 기자의 기사 구독신청 구독해지 이 기자가 쓴 다른 기사 보기 : 태풍 '난마돌' 일 가고시마 상륙…제주서 낚시객 1명 숨져 제주를 책임지는?섬 사나이 문석빈 입니다. 이메일 이전 취재기자 보기 다음 취재기자 보기 이전 다음 JTBC 뉴스 페이스북 공식 채널 좋아요 JTBC 뉴스 카카오톡 공식 채널 친구추가 JTBC 뉴스 유튜브 공식 채널 구독하기 프린트 메일 페이스북 트위터 URL 줄이기 복사 URL 줄이기 레이어 닫기 JTBC 핫클릭</t>
+  </si>
+  <si>
+    <t>제주도, 오라관광개발 정책토론 반대 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도, 오라관광개발 정책토론 반대 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도, 오라관광개발 정책토론 반대 제주CBS 문준영 기자 메일보내기 2016-12-06 16:16 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 시민단체, 반려 재검토 촉구…법률적 대응 나서기로 지난달 제주도청 민원실을 방문해 오라관광단지 도정정책토론 청구 명부를 제출하고 있는 시민사회단체연대회의 (사진=문준영 기자) 제주시민단체가 오라관광단지 정책토론에 즉각 응할 것을 원희룡 제주지사에 촉구했다. 제주도는 토론청구를 반려했다. 제주시민사회단체연대회의(이하 연대회의)는 6일 성명을 내고 "연대회의가 청구한 오라관광단지 개발사업 정책토론에 대해 제주도는 이날 최종 반려했다"고 밝혔다. 이와 관련해 제주도는 "주민참여기본조례의 정책토론 조항이 모든 사업에 포함된다는 것은 지나친 확대해석이고, 주민참여 취지를 고려한다고 하더라도 오라개발사업은 제주도가 주체가 된 사업이 아니고 민간에서 인허가 절차 중에 있으며, 민간 주체 사업까지 주요정책사업으로 보는 것은 역시 지나친 해석"이라며 토론청구를 반려했다. 연대회의는 이에 대해 "원희룡 도정이 조례의 규정을 매우 협소하게 해석한 행정 편의주의적 발상만 했다"며 "이는 도민들의 정책토론 청구에 재갈을 물리려는 행정의 일탈행위"라고 비판했다.또 "이번 정책토론을 준비한 이유는 오라관광단지 개발사업으로 인해 도민사회에 직접적인 악영향이 발생할 우려가 크고, 도민의 삶의 질을 크게 후퇴시킬 수 있기 때문"이라고 말했다.연대회의는 이에 따라 정책토론청구 반려를 재검토하라고 요구했다. 연대회의는 앞으로 오라관광단지 관련 정책토론회 재청구 여부 등을 포함한 법률적 대응에 나선다는 계획이다.이어 오라관광단지 인허가 절차 등을 포함한 부정부패 사례에 대해 제보창구를 개설하기로 했다. 제주연대회의는 지난달 21일 제주도청 민원실을 찾아 도민 2800여 명이 참여한 도정정책토론 청구 서명부를 제출해 토론을 요청했지만, 제주도정이 이를 반려하면서 갈등은 더욱 커질 전망이다. 제주오라관광개발사업단지. (사진=자료사진) 한편 오라관광단지 개발사업은 중국계 자본 JCC㈜가 제주시 오라2동 일대 357만5000㎡ 부지에 오는 2021년까지 6조2800억 원을 투자하는 개발사업이다. 현재 환경문제와 인허가 절차 특혜 논란, JCC의 자본 검증 등 각종 논란에 휩싸였다. 더 클릭 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 정진석, 김용민 '尹정부 퇴진'주장에 "민주당 공식 입장인가" 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 승용차 6미터 절벽 추락 나무에 걸려 구조…40대 운전자 음주 혐의 입건 금감원 '수상한 외환거래' 이달 중 검사 마무리 이재명 "종북몰이 공세, 친일파 같아…한미일 훈련, 尹 소명해야" 제주CBS 문준영 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 한라산 입장료 징수 방안 검토... 관광비용 증가로 지역 주민 반발 예상 &lt; 사회 &lt; 경제 &lt; 기사본문 - 금강일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 뉴스 지역 YouTube NAVER Post 모바일웹 로그인 구독하기 PDF 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 한라산 입장료 징수 방안 검토... 관광비용 증가로 지역 주민 반발 예상 SNS 기사보내기 SNS 기사보내기 스크롤 이동 상태바 현재위치 홈 경제 사회 제주도 한라산 입장료 징수 방안 검토... 관광비용 증가로 지역 주민 반발 예상 기자명 김미영 기자 입력 2016.12.16 11:53 댓글 0 SNS 기사보내기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도가 내년부터 성산 일출봉과 한라산의 입장료를 받기로 했다. 한라산의 입장료는 2만 원가량으로 계획돼 있다.15일 워킹그룹(위원장 강만생)은 제주도청 기자실에서 '도내 관광지 입장료 현실화 방안'과 '직업형 제주 해설사 도입'안에 대한 브리핑을 진행했다.도내 관광지 입장료 현실화 방안은 제주도의 대표적인 관광지인 성산 일출봉과 한라산에 입장료를 부과하는 것을 내용으로 하고 있다.이 방안에 따르면 성산 일출봉과 한라산의 입장료는 각각 1만 원 이상, 2만 원 이상이다. 이는 체류시간과 규모 면에서 제주도가 해외 국립공원에 버금가는 유네스코 세계자연유산인 점을 고려한 것이다.워킹그룹은 해마다 늘어나는 방문객으로 훼손되고 있는 성산 일출봉과 한라산에 입장료로 방문객을 줄여 세계자연유산을 보호하고 관광문화의 품격이 향상될 것으로 보았다. 현재 제주도에는 연간 관광객 125만 명이 방문 중이라고 한다.성산 일출봉과 한라산의 입장료는 일부 환경보전기금으로 적립해 국립공원 내 사유지 매입 및 관리, 주요 관광지 환경개선 재원, 직업형 해설사 운영경비 등에 쓰일 계획이다. 또한 워킹그룹은 성산 일출봉과 한라산의 입장료 일부를 환경보전기금으로 적립해 국립공원 내 사유지 매입·관리, 주요 관광지 환경개선 재원, 직업형 해설사 운영 경비 등으로 사용하는 방안도 제안했다.워킹그룹은 향후 입장료 산정 시 대상지역의 적정 수용인구총량을 분석해 결정할 것을 권고했다.현재 성산 일출봉의 입장료는 2천 원이며, 한라산은 입장료가 무료이다. 이에 따라 많은 반대가 예상되고 있다. 성산 일출봉과 한라산에 입장료를 받음으로써 제주관광비용이 증가할 것이기 때문이다.일각에서는 제주관광비용의 증가는 관광객뿐만 아니라 관광업계의 반대에 부딪힐 수도 있다한다. 이뿐만 아니라 제주도내 지역 상권들도 관광비용의 증가에 반발할 가능성이 높다고 보고 있다.이에 따라 제주도는 조례 개정과 환경부와의 협의, 주민 의견 수렴 등의 과정을 거칠 예정이다. 제주도는 2017년 하반기부터 이들 권고사항들을 본격적으로 시행할 방침이다. 저작권자 © 금강일보 무단전재 및 재배포 금지 김미영 기자 jhc@ggilbo.com 다른기사 보기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 추천기사 선우은숙 나이, 전 남편 누구? [종합] 11일 오전 11시 오퀴즈 정답 'G라이브, 신세계, 자연공유, 주영NS' 유영재 프로필 화제, 누구길래? 시사 지역 문화·연예 01 [종합] 11일 오전 11시 오퀴즈 정답 'G라이브, 신세계, 자연공유, 주영NS' 02 전장연, 4호선 지하철 시위 11일 화요일도 강행 03 [내일 날씨] 전국 기상청 일기예보, 아침 최저기온 3도 연휴 뒤 출근길 더 추워...점차 맑은 하늘 회복 04 대전·세종 ‘끝없는 부동산 빙하기’ 05 대전·세종 ‘끝없는 부동산 빙하기’ 06 제13회 대전효문화뿌리축제 성료 07 시중자금 은행 쏠림, 반작용 우려 08 1호선, 유튜브 자주 끊기는 이유 09 “지속가능한 대학 최선 다할 것” 10 [2022 국감] 사이버범죄 수사관 1인당 200건 사건 담당 11 피플바이오, 주가 강세 보여 12 비난·논란 자초하는 대전시의회 13 국민 허리띠 졸라매는데 공기업은 특혜… 14 버킷스튜디오 주가 급락, 이유는? 전체보기 01 예산군, 예산장터 삼국축제서 나무 나눠주기 행사 02 단양군, 법정 계량기 정기검사 실시 03 영동군, 어르신 독감예방접종 12일부터 연령별 순차접종 04 옥천 ㈜더조은숲, 취약계층을 위한 꾸준한 연탄 나눔 05 한국농촌지도자옥천군연합회, 사랑의 쌀 기부 06 보은署, 아동안전지킴이 대상 응급처치 교육 실시 07 보은군 삼승면지사체, 독거노인 주거환경 개선 사업 앞장 08 보은 동광초, 초록학교 활동 전시회 열어 09 옥천군 정신건강 홍보주간 운영 10 세종 갈산서원서 가을 수놓는 국악 선율 11 금산군, 우수 평생학습도시 선정 12 제40회 금산인삼축제 피날레 ··· 역대 최대 103만 명 운집 13 [민선8기 취임 100일 - 김동일 보령시장] “100년 미래 먹거리 창출 위해 달리겠다” 14 당진시재향군인회, 제70주년 재향군인의 날 기념행사 개최 전체보기 01 선우은숙 나이, 전 남편 누구? 02 유영재 프로필 화제, 누구길래? 03 임영웅, ‘TMA 5관왕’ 04 ‘복귀’ 홍진영, 근황은? 05 박수홍 엄마 ‘카레사건’ 재조명 06 송가인 콘서트, 목포 다음은 천안 07 임창정 걸그룹 미미로즈, “200억 다 어디갔어?” 08 ‘공효진♥’케빈오 프로필은? 09 '스맨파' 새삥 안무 표절 논란 뭐길래? 10 고두심 아들 김정환 누구? 11 비비, 비키니 끈 풀려 대형 노출사고 날 뻔... 12 [오늘날씨] 서울 아침 6도, 가을 추위 찾아와... 강한 바람에 체감온도도 뚝 13 골프선수 박결, 국내 톱스타와 불륜설에... 14 김세정‘♥안효섭’과의 근황 전체보기 가장 빠른 충청뉴스 태안군민체육대회 6년 만에 15일 개최 태안군민 ‘화합의 한마당’ 태안군민체육대회가 2016년 이후 6년 만에 15일 성대한 막을 올린다.군민체육대회는 태안종합운동장 및 보조경기장에서 8개 읍·면민과 출향군민이 참여한 ... 금산군, 우수 평생학습도시 선정 제40회 금산인삼축제 피날레 ··· 역대 최대 103만 명 운집 [민선8기 취임 100일 - 김동일 보령시장] “100년 미래 먹거리 창출 위해 달리겠다” 스포츠 뉴스 이정후 여동생 누구길래? 고우석과 결혼 이대호 와이프 신혜정 눈물...‘왜?’ '레전드' 카시야스-푸욜, 게이설 불러 일으킨 커밍아웃 헤프닝 괴물 김민재, 파워랭킹 7위 랭크 윤이나 징계에 박세리, ‘변명은 절대 있을 수 없다’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 대전광역시 서구 대덕대로 223 8층 (서구 둔산동 1033 대우토피아 8층) 대표전화 : 042)346-8000 팩스 : 042)346-8001~2 청소년보호책임자 : 김형중 법인명 : 주)금강일보사 제호 : 금강일보 등록번호 : 대전 가 00021 등록일 : 2010-04-12 발행일 : 2010-05-03 발행인 : 김장식 편집인 : 차철호 Copyright © 2022 금강일보. All rights reserved. mail to admin@ggilbo.com 위로 전체메뉴 전체기사 지역 전체 지역일반 세종 내포/홍성/예산 천안/아산 서산/당진/태안 보령/서천 공주/부여/청양 금산/논산/계룡 지역기획 충북 충남 대전 스포츠 전체 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 골프 인천아시안게임 한화이글스 FIFA U-20 월드컵 러시아월드컵 2018 아시안게임 대전하나시티즌 뉴스Plus 전체 최신기사 카드뉴스 연재 운세 바둑 유머 알림 온라인 금강일보 뉴스룸 최일의 뉴스브리핑 핫뉴스 브리핑 알쏭달쏭 국민연금 김현호의 저녁 뭐 먹지 오늘의 역사 금강의 아침 명언 곽진성의 오늘의노래 오! 유행 오늘의 꽃 틀리기 쉬운 맞춤법 스펙UP [오늘의 공모전] 생활과 건강 퇴근길 영어회화 김미진 신익규 박정환 김정섭 김지현 신성룡 해외소식 경제 전체 경제일반 건설/부동산 금융/증권 기업/산업 과학 유통/쇼핑 대덕특구 경제기획 취업/창업 농업/축산업/수산업/산림 IT 보험 인구/복지 물가 인생역전 로또 정치 사회 스포츠 경제 정치 사회 스포츠 경제 생활문화 코스닥,코스피 경제기획 유망중소기업 탐방 충청기업실록 정치 전체 정치일반 국회/정당 행정/자치 대전시정 충남도정 정부청사 정치기획 선거 여론조사 정치 인사이드 [선택 4·15] [6·1 지방선거] 사회 전체 사회일반 사건/사고 법원/검찰/경찰 교육 보건/의료 NGO 노동/복지 메트로 여성 종교 사회기획 문화 국방 환경 날씨 행사/축제 With함께 국제 행정 안전 인권 서중석의 싸인(Sign) : 삶과 죽음의 진실게임 [아이가 희망입니다] e-브리핑 금강레이더 [스토리텔링 Why] 대전 청년을 말하다 스토리 리와인드 [대전 아동가구 재래식 화장실 제로화 캠페인] 문화 전체 건강/웰빙 공연/전시 영화 출판/문학 방송/연예 퀴즈 여행 문화기획 금강라이프 갤러리 금강 자전거 여행 역사 행사/축제 대청호 오백리길 문화일반 #편집부다락방 게임 무지개빛 다문화 G-카페 [대하소설] 대륙에 일던 풍운 [시각시각] 대전둘레산길 다시 쓰는 錦江 대전 3대하천 탐험대 [정승열의 힐링여행 2] 강신철 교수의 우바쓰운동 김미진의 [좋은집사 되기 Q&amp;A] 포토 전체 포토뉴스 포토에세이 금강만평 시민기자 카툰세상 금강 view] 명예기자가 보는 세상 김형중의 뷰 김동직의 줌인 오피니언 전체 칼럼 사설 기자수첩 이야기부자 사유담 김충남의 힐링고전 권태달의 풍수이야기 농가월령가 교단일기 유물로 본 충남 역사문화 국민연금 Q&amp;A 교통안전 365 신웅순의 시조한담 산학협력단 브리핑 김도운의 우문우답 [데스크칼럼] 금강人 양태자 박사의 5분 중세사 조재도의 삶과 詩 폴리스노트 경매 Q&amp;A 독자투고 건강보험 Q&amp;A 충청유교문화의 재발견 [기자칼럼] G-스토리 금융 Q&amp;A 추모의 편지 이선준의 꿈꾸는 다락방 김충남의 광장인문학 시 쓰는 기자 김충남의 중용강의 김충남의 채근담 산책 메디컬365 차철호의 #길 김 기자의 雜記 임상훈의 중국 역사문화기행 최신웅의 취재수첩 [이규식칼럼] 길을 걷다 특집 전체 신년특집 100인에게 묻다 CEO와의 차 한잔 명절특집 보건의 날 전기의 날 과학·정보통신의 날 창간호 K-뷰티 퍼포먼스 금강마당 전체 마당일반 사람들 문화 동정 인사 결혼 부음 사고 개업 알림 본사손님 커뮤니티 전체 독자투고 썸맘의 반려동물 이야기 세종플러스 전체 정치 경제 사회 문화·건강·레저 행정·종합 오피니언 인사·알림 사람들 세종마당 국제 과학 Hotclick 전체 문화·연예 방송·연예 정치·사회 스포츠 경제 국제 china 전체 演艺界 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 오라관광단지 도정정책토론 청구 '반려' 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도, 오라관광단지 도정정책토론 청구 '반려' (제주=뉴스1) 오미란 기자					| 2016-12-07 15:58 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 지난달 21일 오전 제주도청 민원실에서 제주시민사회단체연대회의 대표자들이 오라관광단지 도정정책토론 청구인 서명부를 제출하고 있다.2016.11.21./뉴스1 DB © News1 오미란 기자 제주특별자치도가 오라관광단지 개발사업에 대한 도정정책토론 청구를 반려했다.제주도는 6일 청구인 대표인 문상빈 제주환경운동연합 공동의장에게 오라관광단지 도정정책토론 청구 반려 문서를 전달했다고 7일 밝혔다.법률 자문과 법제처 유권해석 결과 민간 주체로 인허가 절차가 진행되고 있는 사업은 '제주도 주민참여 기본조례'에서 정한 정책토론 대상이 아니라는 결론이다.현행 조례에서는 '제주도의 주요 정책 사업'을 정책토론 대상으로 명시하고 있어, 민간 사업인 오라관광단지 개발사업에 대한 도정정책토론은 성사될 수 없다는 설명이다.이승찬 제주도 관광국장은 "지난달 23일 원희룡 제주도지사가 제주도청 기자실 방문 시 언급한대로 조례에 의한 정책토론 대상에 해당이 안 된다 하더라도 도민 관심 사업이기 때문에 법적 절차 구애 없이 토론회 또는 설명회 개최를 검토하겠다"고 밝혔다.한편 제주도내 18개 시민사회단체로 구성된 제주시민사회단체연대회의는 지난달 2일부터 20일까지 제주도민 3127명의 서명을 받아 지난달 21일 제주도에 오라관광단지 도정정책토론 청구인 서명부를 제출했다. mro1225@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도-제주관광공사, 5차 명사초청 특강 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도-제주관광공사, 5차 명사초청 특강 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도-제주관광공사, 5차 명사초청 특강 기자명 고병수 기자 입력 2016.12.11 14:08 수정 2016.12.11 14:11 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도와 제주관광공사는 관광종사원 및 도민의 환대의식을 개선시키고자 '탐나는 제주, 내 가슴이 설레다' 명사초청 특강 5차시를 16일 오후 7시부터 제주웰컴센터 웰컴홀에서 실시한다고 11일 밝혔다.이번 특강은 KBS '역사저널 그날'의 진행자인 신병주 교수가 강연자로 나선다. 신병주 교수는 조선전체의 역사를 통찰하는 전문가로 저서로는 조선과 만나는 법 등이 있다.  신 교수는 조선의 왕릉 이야기를 중심으로 역사여행 이야기가 진행되며, 역사의 중요성과 역사에 대한 올바른 인식의 필요성에 대해 이야기도 나눌 예정이다. 한편 이 특강은 중학생이상이면 누구나 무료로 참여 할 수 있다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>중국인 관광객 300만원 쓰면 복수비자 발급? 제주도 무비자도 해결 못 하면서... &lt; 뉴스 &lt; 문화 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 11:46 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 '2022 서울여성합창페스티벌' 개최...코로나19 이후 3년 만에 재개 안방에서 즐기는 궁궐체험 ‘2022 궁온 프로젝트’ 2차 접수 [22 가을 패션 추천] 제니→크리스탈 '패셔니스타'는 다 입었다...'바시티 자켓' 추천 5 문체부, ‘2022 문화의 달’ 기념행사 개최...다양한 공연 열려 [공연소식] 10월 둘째 주, 주목할 만한 클래식/무용 공연 2022년 10월11일(화) 오늘의운세 띠별, 별자리 [이번주뭐입지?] 힙한 룩부터 프레피 룩 까지...'부츠' 활용한 가을 코디 추천 뮤지컬 '캣츠', 오리지널 연출 부활과 함께 내한 공연 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 중국인 관광객 300만원 쓰면 복수비자 발급? 제주도 무비자도 해결 못 하면서... 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 문화 뉴스 중국인 관광객 300만원 쓰면 복수비자 발급? 제주도 무비자도 해결 못 하면서... 기자명 문화뉴스 최예슬 입력 2016.12.17 00:00 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [문화뉴스] 우리나라가 300만 원 이상의 한국 여행상품을 산 중국인 관광객(유커)들에게 5년간 한국을 자유롭게 방문할 수 있는 복수비자를 발급해 줄 전망이다. 그러나 그동안 제주도에 무비자로 들어온 중국인들의 사고 때문에 복수비자 역시 우려를 낳고 있다.문화체육관광부는 이 같은 복수비자 발급 방안을 추진하기로 하고 법무부와 일정 등을 협의 중이라고 16일 밝혔다. ▲ ⓒ KBS 방송화면 문체부 관계자에 따르면 3박 4일 기준 300만 원 이상의 여행상품을 산 유커들에게 5년간 언제든지 방문할 수 있도록 복수비자를 발급할 예정이다. 한 번 방문할 경우 최장 30일 동안 한국에 머무를 수 있도록 할 예정이다. 그동안은 대부분 방한 시 새로 비자를 신청하도록 돼 있는 단수비자를 발급해왔다.정부는 이 같은 복수비자 발급 방안을 도입하기로 한 가운데 문체부와 법무부가 도입 시기를 정하는 것만 남겨둔 상태다. 이르면 내년 1월께부터 도입될 수도 있을 것이라는 의견이다.하지만 일각에서는 제주도에 무비자로 들어온 중국인들이 일으킨 각종 폭행 사건과 살인 사건 등을 언급하며 "도입을 다시 한번 생각해봐야 하지 않느냐"는 의견도 나오고 있다. ▲ 중국인 4명이 한국인 남자 종업원을 집단 구타하는 장면 ⓒ JTBC 방송화면 국제 자유도시를 지향하는 제주도는 외국인 관광객 유치 등을 위해 지난 2002년 무비자(무사증) 제도를 도입했다. 이 제도는 테러지원국으로 지정된 11개국을 뺀 국적의 외국인이 관광을 목적으로 방문할 경우 비자 없이 30일 동안 체류할 수 있게 입국을 허용하고 있다 그러나 2016년 1월~7월까지 347명의 외국인이 제주에서 범죄를 저질렀고 그중 중국인이 240명으로 전체의 약 70%를 차지했다. 이에 제주도민들과 제주도로 여행을 떠나려는 내국인들의 불안감과 중국인에 대한 반감은 날로 커지고 있다. ▲ 올해 제주도에서 범죄를 저지른 중국인 비율 ⓒ YTN 방송화면 지난 9월 제주도 내 한 음식점에서 중국인 관광객 7명이 50대 식당 여주인을 무차별적으로 폭행해 뇌출혈 등의 상해를 입힌 사건이 있었고, 8월에는 중국인 관광객 천궈루이가 성당에서 기도하던 여성을 무참히 살해하는 등의 사건이 있었기에 복수비자 제도에 대한 국민의 의견은 다소 부정적이다.정부는 고소득층 유커들을 위해 5성급 이상 호텔에서 숙박하면서 뷰티, 건강검진, 한류 공연 관람 등 자유롭게 쇼핑을 즐길 수 있는 프리미엄 상품도 개발한다는 계획을 추가로 세웠지만, 이 목적 역시 제주도 무비자 제도의 목적과 동일하다. 이에 결과도 동일하지 않을까 하는 것이 대다수 국민들의 목소리다.이런 상태에서 또다시 복수비자 제도를 도입하는 이유가 무엇인지, 실질적으로 필요한 제도인지에 대한 궁금증만 커지고 있다.문화뉴스 최예슬 dptmf6286@mhns.co.kr 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 관련기사 [오늘의 한 줄·명언, 12.16] "사랑하는 기술이 아니라 사랑을 받는 기술이다" (알퐁스 도데)[오늘의 이벤트, 12.16] 부산 남천역 데이트…연극 '칠학년일반'으로[오늘의 포스터, 12.16] 청소년 범죄 증가, '누가 그들을 만들었는가'[오늘의 배우#셀피, 12.16] 배우 구혜리 편[오늘의 미술, 12.16] 김환중 개인전 'BANANA VIBE' 문화뉴스 최예슬의 다른 기사 보기 문화뉴스 최예슬 dptmf6286@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 러브컨템포러리아트, 닥설랍 개인전 'Blurry Romanticism' 개최 [이상진 디렉터의 캘리문화] (6) 첩첩석중(疊疊石中) 아르코미술관, 대만과 한국-대만 비디오 교류 프로그램 개최 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 공공WiFi로 관광객 데이터 모은다 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도, 공공WiFi로 관광객 데이터 모은다 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 공공WiFi로 관광객 데이터 모은다 홍수영 기자 승인 2016.12.21 17:39 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × ICT 기반 스마트관광 인프라 구축사업…관광객 빅데이터 구축 계획 [제주일보=홍수영 기자] 제주특별자치도는 정보통신기술(ICT) 기반의 스마트관광 인프라 구축사업으로 올해에 이어 내년에도 주요 관광지 등에 공공 와이파이(WiFi)를 추가 설치하고 개별관광객에 대한 빅데이터를 구축할 계획이라고 21일 밝혔다.제주도는 올해 도내 주요 관광지 및 관광객 밀집지역 600곳에 공공 와이파이를 설치했으며, 내년에는 1000여 곳에 공공 와이파이를 추가 설치할 예정이다.제주도는 관광객들이 공공 와이파이에 접속할 때 입력하는 국적과 성별, 나이 등을 수집해 패턴을 분석하고 빅데이터를 구축, 데이터 중심의 관광서비스를 구현할 계획이다.제주도는 오는 27일 ‘2016 스마트관광 추진사업 통합 완료 보고회’를 개최할 예정이다. 홍수영 기자  gwin1@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 홍수영 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 8외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 도내 카지노에 "관광진흥기금 누락분 내라" &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 도내 카지노에 "관광진흥기금 누락분 내라" 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도 도내 카지노에 "관광진흥기금 누락분 내라" 기자명 윤주형 기자 입력 2016.12.14 15:41 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 23억원 부과 통지…내년 6월까지 4회 분납 &lt;속보&gt;제주도가 도내 모 카지노가 세무조사 과정에서 관광진흥기금 20여억원 누락 사실을 포착한 가운데 소멸시효를 앞두고 부과통지서를 발송한 것으로 확인됐다. 제주도는 지난달 도내 모 카지노에 관광진흥기금 추가분 23억원을 낼 것을 통보했다. 해당 업체가 분한 납부를 요청함에 따라 도는 오늘(15일) 1차 납부를 시작으로 내년 6월까지 4회에 걸쳐 23억원을 내도록 조치했다. 내년 6월까지 제주도가 부과한 관광진흥기금 추가분을 내지 않으면 영업정지 등 행정처분을 받게 된다. 이에 앞서 2013년 8월 부산지방국세청은 2009년 1월부터 2011년 12월까지 제주도내 모 외국인 카지노의 매출 자료를 확인하는 등 세무조사를 했다. 세무조사 결과 이 업체가 2011년 매출액 220억원을 누락해 신고한 것으로 드러나면서 세무당국은 가산세 등을 합쳐 모두 107억원 상당의 세금을 부과·징수할 수 있다고 고지했다. 하지만 제주도는 당시 해당 업체에 관광진흥기금을 추가로 부가하지 않다가 본보 보도(2016년 5월31일자 2면, 6월6일자 2면) 이후 관련 절차를 진행했다. 제주도 관계자는 "변호사 자문 및 법률 검토 결과 해당 카지노에 대한 추가 관광진흥기금 부과 소멸시효는 내년 4월까지로 판단하고 있다"며 "부과된 기금을 내지 않으면 과태료, 영업정지 등 행정 조치가 이뤄진다"고 말했다. 윤주형 기자 21jemin@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 오라관광단지 정책토론 ‘반려’ &lt; 사회일반 &lt; 사회 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도 오라관광단지 정책토론 ‘반려’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회일반 제주도 오라관광단지 정책토론 ‘반려’ 기자명 최병근 기자 입력 2016.12.06 15:58 수정 2016.12.06 16:01 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 시민단체, “원희룡 제주도정 내세운 ‘협치’ 포기선언”재청구여부 검토…부정부패감시제보센터 운영 계획 [제주도민일보 DB] 제주시민사회단체연대회의 소속 회원들이 지난달 3일 제주대학교에서 오라관광단지 개발사업 정책토론회 청구 서명운동을 벌이고 있는 모습.시민사회단체가 제안한 오라관광단지 개발 사업 정책토론회를 제주도가 법률상의 이유를 들어 사실상 거부하면서 파문이 일고 있다. 원희룡 제주도정이 내세운 ‘협치’를 포기한 것이나 다름 없다는 비판이 나오고 있다.더욱이 시민사회단체가 오라관광단지 개발사업 정책토론회를 다시 한번 청구를 검토하고 있어 향후 논란과 갈등은 더욱 깊어갈 것으로 보인다.제주도는 6일 제주시민사회단체연대회의가 청구한 오라관광단지 개발 사업 정책 토론을 최종 반려했다.시민사회단체연대회의에 따르면 제주도가 내세운 반려 이유는 ‘법률자문 결과’였다. 제주도가 제시한 내용에 따르면 “주민참여기본조례의 정책토론 조항이 모든 사업에 포함된다는 것은 지나친 확대해석이고, 주민참여 취지를 고려한다고 하더라도 제주도가 주체가 된 사업이 아니고 민간에서 인허가 절차중에 있으며, 민간 주체 사업까지 주요정책사업으로 보는 것은 지나친 확대해석”이라는 입장이다.하지만 시민단체연대회의는 매우 협소하게 해석한 행정 편의주의적 발상이라고 반박했다.시민사회단체연대회의 측은 “제주도가 유권해석을 의뢰했던 법제처는 조례에 대한 것은 제주도 차원에서 판단할 일이라며 정책토론을 받아들일 수 있는 충분한 사유를 제공했다”며 “결국 원희룡 도정은 조례의 규정을 매우 협소하게 해석한 행정 편의주의적 발상만을 한 것”이라고 반박했다.이를 두고 시민사회단체연대회의 측은 원희룡 도지사의 협치의 ‘완전 포기선언’이라고 규정했다. 그러면서 “앞으로 예상되는 이와 유사한 도민들의 정책토론 청구에 재갈을 물리려는 행정의 일탈행위”라고 규정했다.실제 향후 제기될 도정정책토론 청구 대상자는 조례 개정 등에 따라 유권자의 1000분의 1이면 가능해 졌지만 제주도가 이를 회피하기 위한 수단으로 거부했다는 비판에서 자유로울 수 없을 것으로 보인다.제주시민사회단체연대회의는 6일 성명을 내고 원희룡 지사에게 “이번 정책토론청구 반려에 대해 재검토 해 줄 것을 요청한다”며 “또한 연대회의 역시 오라관광단지 관련 정책토론회 재청구 여부 등을 포함해 법률적 대응도 해나갈 것”이라고 선언했다.또한 “오라관광단지 개발사업과 관련해 인허가 절차 등을 포함한 부정부패 사례에 대한 제보창구를 개설하고 오라관광단지를 막기 위한 도민적 감시운동을 펼쳐 나갈 것”이라고 밝혔다. 관련기사 오라관광단지 “정책 맞짱뜨자” “도민 삶 우선, 오라관광단지 중단하라” “오라관광단지 알 권리를 찾자” 오라관광단지 논란 ‘뜨거운 감자’ 급부상 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 오라관광단지 정책토론 청구 반려 결정 &lt; 행정 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도, 오라관광단지 정책토론 청구 반려 결정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 행정 제주도, 오라관광단지 정책토론 청구 반려 결정 기자명 김경필 기자 입력 2016.12.06 16:42 수정 2016.12.06 18:31 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 도, 법률자문 거쳐 최종 결정…민간시행사업 판단별도 토론회 진행키로…시민연대 "협치 포기선언"제주도가 시민단체의 오라관광단지 정책토론 청구에 대해 법률 검토를 거친 결과 조례에서 명시한 정책토론 대상이 아니라고 판단, 반려 결정을 내렸다.다만 도는 사안의 중대성 등을 감안해 별도의 토론회를 개최하기로 해 귀추가 주목된다.김방훈 제주도 정무부지사는 6일 오전 제주도청 기자실을 방문한 자리에서 제주시민사회단체연대회의의 오라관광단지 개발사업 정책토론 청구를 반려할 계획이라고 밝혔다.제주시민사회단체연대회의는 지난달 21일 도민 등 2800여명의 서명을 받아 도에 오라관광단지 정책토론을 청구했다.이번 정책토론 청구는 제주도 주민참여기본조례에 명시된 도정 정책토론 개최 규정을 근거로 했다. 선거권자 총수의 1000분의 3 이상의 연서를 받아 정책토론을 청구할 수 있고 도지사는 1개월 이내에 정책토론에 응해야 한다.오라관광단지 사업은 제주도정이 내세운 미래비전 핵심가치인 청정과 공존에 부합하지 않고, 각종 의혹을 규명해야 한다는 것이 청구 취지다.하지만 도는 오라관광단지 정책토론 청구가 요건을 갖췄는지 법률자문을 거친 결과 정책토론 청구대상에 해당되지 않는다고 판단했다.오라관광단지 사업은 민간이 주도하는 사업으로 정책토론 청구대상인 제주도 주요정책 사업으로 보기 힘들다는 것이 법률자문 결과다.다만 도는 오라관광단지 개발사업을 두고 각종 의혹이 제기되는 점을 감안, 별도의 토론회를 진행하기로 했다.이에 대해 제주시민사회단체연대회의는 6일 보도자료를 내고 "도정은 조례의 규정을 매우 협소하게 해석하는 등 행정 편의주의적 발상만을 한 것"이라며 "협치 포기선언이자 행정의 일탈행위"라고 비판했다. 김경필 기자 kkp2032@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 민관합동 안심관광캠페인 - 불교공뉴스 × 전체기사 종합 지역뉴스 전체 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 서울시 대구시 강원도 인천시 경기도 광주시 전라남도 전라북도 부산시 울산시 경상남도 경상북도 제주도 충주시 제천시 괴산군 부여군 논산시 공주시 천안시 안동시 담양군 청양군 여수시 금산군 예산군 아산시 고양시 횡성군 증평군 성남시 하동군 속초시 음성군 순천시 경주시 광양시 나주시 화순군 목포시 신안군 무안군 종교 전체 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 전체 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈.기획 연합뉴스 전체 엑셀데이터 선거정보 경제일반 TV동영상 자동생성기사 UPDATED. 2022-10-11 12:14 (화) 로그인 회원가입 보도자료 모바일웹 전체 종합뉴스 지역뉴스 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 청양군 성남시 종교소식 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈·기획 연예뉴스 검색버튼 기사검색 검색 이전 다음 제주도, 민관합동 안심관광캠페인 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 지역뉴스 제주도 제주도, 민관합동 안심관광캠페인 지화 승인 2016.12.02 11:55 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 이 기사를 번역합니다 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도네시아어 × [불교공뉴스-제주도] 제주특별자치도와 제주관광공사(사장 최갑열)는 외국인 관광객이 많이 방문하는 성산일출봉 일대에서 성산읍 주민, 중국어관광통역안내사협회, 서귀포시, 관광경찰과 함께 ‘모두가 안심하고 관광할 수 있는 제주 만들기’ 관광캠페인을 12월2일 실시하였다. 이번 캠페인은 도민과 관광객들 사이에 언어, 문화차이로 인하여 발생하는 사건·사고 및 관광객 기초질서 위반 등을 예방하기 위하여 성산읍 주민들이 함께 참여하는 민관합동 캠페인으로 진행되었다. 도민에게는 외국인관광객들의 문화를 이해할 수 있도록 글로벌 문화책자를 배포하고 외국인관광객들에게는 제주관광시 지켜야 하는 기본적인 에티켓이 담겨 있는 리플렛을 배포하고 홍보함으로써 도민과 관광객 모두가 만족하는 안심관광 분위기를 조성하였다. 캠페인에 참가한 중국어관광통역안내사 관계자는 “제주관광 활성화를 위해서 도민과 관광객 모두가 언어․문화적 차이를 이해하고 기초질서를 준수하여 안심하고 관광 할 수 있는 분위기를 조성해야한다”라고 강조했다. 저작권자 © 불교공뉴스 무단전재 및 재배포 금지 지화 다른기사 보기 기사가 마음에 드셨나요? 불교공뉴스는 창간 때부터 클린광고 정책을 유지하고 있습니다. 이것은 작은 언론으로서 쉬운 선택은 아니었습니다. 그럼에도 불구하고 불교공뉴스는 앞으로도 기사 읽는데 불편한 광고는 싣지 않겠습니다. 불교공뉴스는 아이 낳고 기르기 좋은 세상을 만드는 대안언론입니다. 저희 기사가 마음에 드셨다면, 좋은 기사 후원하기에 동참해주세요. 여러분의 기사후원 참여는 아름다운 나비효과를 만들 것입니다. 불교공뉴스 좋은기사 후원 계좌안내 농협 301-0234-1422-61 (손경흥 / 불교공뉴스) ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 인기기사 1[영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! 2나태주풀꽃문학관, 제5회 풀꽃문학제 ‘두 사람’ 개최 3증평군, 트로트 가수 박군 홍보대사로 위촉 4[영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 5[영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! 6[영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! 7영동경찰서, 지역치안협의회 정기회의 개최 8계룡세계군문화엑스포 7일 개막 9부여군, “제68회 백제문화제 순항” 10[카메라 뉴스] 2022 괴산세계유기농산업엑스포 개막식 최신기사 천태산 은행나무에 바치는 자연 시편 『천년 동무 천년 등불』 ‘시와에세이’에서 발간 옥천 ㈜더조은숲, 취약계층을 위한 꾸준한 연탄 나눔 한국농촌지도자옥천군연합회, 사랑의 쌀 기부 영동·김천·무주, 올해는 삼도봉 정상에서 변치않는 우정 확인! 영동군, 2022-2023절기 어르신 독감예방접종 12일부터 연령별 순차접종 영동군, AI·IOT기반 어르신건강관리 서비스 ‘만족도UP, 건강UP’ 옥천군 보건소 2022년‘비만예방의 날’기념 캠페인 실시 오늘의 동영상 [영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! [영상뉴스] 유성구, 야경이 아름다운 제13회 ‘유성 국화전시회’ [영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! [영상 / 포토] 충남 부여에서 열리는 제68회 백제문화제! [영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! [영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 [불교공뉴스·TV 힐링대담] JB가든센터 '대림묘목농원' 김정범 대표 [포토뉴스] 지용제, 3년 만에 구읍을 詩끌북적하게 하며 성료 포토뉴스 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 충청북도 옥천군 지용로 142 대성사 사업자명 : 손경흥 사업자번호 : 688-03-01080 대표전화 : 043-733-5559 팩스 : 043-733-5559 명칭 : 불교공뉴스 제호 : 불교공뉴스 등록번호 : 충북아 00049 등록일 : 2010-11-01 발행일 : 2010-11-11 발행인 : 혜철스님(손경흥) 편집인 : 손경흥 청소년보호책임자 : 이한배 불교공뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 불교공뉴스. All rights reserved. mail to webmaster@bzeronews.com 위로</t>
+  </si>
+  <si>
+    <t>제주도, 오라관광단지 도정정책토론청구서 반려 | 아주경제 2022.10.11 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 제주도, 오라관광단지 도정정책토론청구서 반려 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 제주도, 오라관광단지 도정정책토론청구서 반려 기자정보, 기사등록일 입력 2016-12-07 11:05 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 조례에서 정한 도 주요정책 사업에 해당되지 않아 아주경제 진순현 기자= 제주도가 오라관광단지 도정정책토론청구서를 반려했다. 이는 조례에서 정한 도의 주요정책 사업에 해당되지 않는다는 게 이유다. 제주도(지사 원희룡)는 지난달 21일 접수된 오라관광단지 도정정책토론 청구서(3127명 서명, 청구인대표 문상빈)에 대해 지난 6일 관련 일건서류를 청구인 대표에게 반려했다고 7일 밝혔다. 도에서는 주민참여기본조례 제8조에서 정한 ‘제주자치도의 주요정책 사업’에 해당되는지에 대해 법률 자문과 법제처 유권해석을 요청한 결과 “민간이 주체가 돼 인허가 절차 중에 있는 사업은 조례에서 정한 정책토론 대상이 아니다”라는 결과를 받았다. 관련기사제주녹색당, 오라관광지구 조건부 승인 취소해야제주, 올해 10월 토지거래 면적 감소세 지속↓ 이승찬 관광국장은 “청구인 대표를 방문해 반려사유에 대한 설명과 함께 반려문서를 전달했다”며 “이와 별도로 도민 관심 사업이기 때문에 설명회나 토론회 개최를 검토 하겠다”고 말했다. #도정정책토론청구서 #반려 #오라관광단지 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3中 20차 당대회 앞두고 코로나 또 '비상'...국경절 연휴 영향 4국경절 연휴 마친 증시…호재 뒤늦게 반영할까 5尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 69월 CPI·FOMC 의사록·어닝시즌에 "불안감 증폭" 7세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5버거에 꽂힌 유통·식품업계 3세들 6창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 7'판매'보다 '모객' 집중... 전시에 꽂힌 유통가 1尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 2'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 3커지는 유승민 존재감 vs 견제구 던지는 안철수·나경원…빨라지는 與 차기 당대표戰 4'고작 2%' 과학기술 公기관 '장애인 고용률'···부담금만 331억 지출 5​'국감 데뷔' 이복현…공매도·전산장애·고위험상품 3대 허들 기다린다 6김두관 의원 "코레일 근무태만 천태만상 심각" 7'핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달라진 네 가지 포인트 1쌀쌀한 날씨 계속…찬바람 불어 체감온도 '뚝' 2감사원 국감 D-1...여야 '강대강' 격돌 예고 3베트남문화축제 광주에서 열려...위로하고 다짐하고 "오늘은 즐거운 날" 4대구 달성군, 취임 100일 최재훈 군수… 군민이 빛나는 달성 5강원도관광재단, 전국 최초 워케이션 상담회 개최 6前우체국 집배원 유용식씨, 퇴직 후에도 이웃사랑 실천 7수원시, 3년 만에 대면으로 열린 '제59회 수원화성문화제' 성료 1세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2버티거나 매각하거나…M&amp;A 스타트업 면면은 3"내년 '아크' 상용화 '박차'…최대한 빠른 시일 내 추진할 것" 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5세계 3대 디자인 시상식서 존재감 키우는 韓 IT기업들 6숏폼 '틱톡', 해외 향한 韓기업 광고 수단으로 눈길 7창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 오늘의 1분 뉴스 세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2년만에 독 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 경기 불황에…3분기 스타트업 M&amp;A 46건 '올해 최대' 반도체 중국 수출 통제 여파 급락…나스닥 2년래 최저 '핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달리진 네 가지 포인트 존재감 키우는 유승민 vs 견제나선 안철수·나경원…與 차기 당권 경쟁 우크라 키이우, 출근길 피투성이 불바다…푸틴 "보복 공격" 인정 포토뉴스 첫눈으로 하얗게 변한 지리산 천왕봉 가을 정취 만끽하는 시민들 무주 덕유산의 상고대 100만 인파가 바라본 서울세계불꽃축제 2022 아주 글로벌 中國語 English 日本語 Tiếng Việt 日本旅游走起！ Hyundai Mobis' new infotainment platform debuts at trade fair in Germany 尹大統領の支持率32%・・・1週間で0.8%p↑ Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 미·중 싸움에 韓 반도체 멍든다 버냉키 등 美경제학자 3인 노벨경제학상 바이든 "러시아, 부당한 공격 중단해야…美 우크라 계속 지원" 대통령실 "한미일 연합훈련, 文정부 합의...'친일 프레임' 의아" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
+  </si>
+  <si>
+    <t>제주도, 오라관광단지 정책토론 '반려'..."법적 대상 아냐" - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 오라관광단지 정책토론 '반려'..."법적 대상 아냐" 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 제주도, 오라관광단지 정책토론 '반려'..."법적 대상 아냐" 박성우 기자 headlinejeju@headlinejeju.co.kr 승인 2016.12.06 13:55 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 시민사회단체연대회의 청구 조례상 정책토론 '반려' 결정 "오라단지 도민사회 미칠 영향 커" 별도 토론회 개최 가닥 ▲ 지난달 2일 열린 오라관광단지 의혹 규명 도정정책토론 청구 서명운동 시작 기자회견. ⓒ헤드라인제주 제주지역 역대 최대 규모이자, 난개발 및 환경훼손 논란에 휩싸인 제주오라관광단지 개발사업에 대한 각종 의혹과 논란을 규명하기 위해 시민사회단체가 청구한 정책토론이 사실상 받아들여지지 않을 전망이다. 이를 대신해 관련 의혹을 설명하기 위한 별도의 도민설명회를 개최하겠다는 내부 방침을 세운 것으로 전해졌다.김방훈 제주도 정무부지사는 6일 오전 제주도청 기자실을 방문한 자리에서 제주시민사회단체연대회의로부터 제기된 오라관광단지 개발사업 정책토론 청구를 반려할 계획이라고 밝혔다.법률자문 결과 해당 사안은 정책토론의 대상이 아니라는 판단이다.이번 정책토론 청구는 제주도 주민참여기본조례에 명시된 '도정 정책토론'을 시행하기 위한 것으로, 지난달 21일 청구인 2800여명의 서명을 받은 제주시민사회단체연대회의가 제기했다.조례에서는 선거권자 총수의 1000분의 3 이상의 연서를 받아 정책토론을 청구할 수 있도록 하고 있는데, 이 경우 제주도지사는 1개월 이내에 정책토론에 응해야 한다. 제주도정의 사업자 밀어주기와 특혜 의혹, 환경영향평가심위원회 운영과정의 문제 등 불거진 의혹에 대해 공개적으로 짚고 넘어가겠다는 취지다.다만, 제주도는 이번 오라관광단지 사업인 경우 제주도 주체하는 사업이 아닌 민간이 하는 사업을 신청만 받은 것이어서 정책토론의 대상이 아니라는 법률자문 결과를 받았다고 설명했다.제주도 관계자는 "주민참여기본조례의 정책토론 조항이 모든 사업에 포함된다는 것은 지나친 확대해석이라는 자문을 얻었다"며 "주민참여 취지를 고려한다고 하더라도 제주도가 주체가 된 사업이 아니고 민간에서 인허가 절차 중에 있고, 민간 주체 사업까지 주요정책사업으로 보는 것은 지나친 확대해석"이라고 강조했다.이 관계자에 따르면 법제처도 "조례에 대한 것은 자치단체가 알아서 판단해야 할 재량에 관한 것으로, 법제처가 유권해석하는 것은 바람직하지 않다"는 뜻을 전해온 것으로 알려졌다.결국 조례상으로 보장하고 있는 오라관광단지개발사업에 대한 정책토론 청구는 반려될 것으로 보인다.단, 이 경우 제주도는 오라관광단지 개발사업이 도민에게 미칠 영향 등을 고려해 별도의 도민설명회나 토론회는 개최할 용의가 있다는 뜻을 내비쳤다. 앞서 원희룡 제주도지사는 정책토론이 청구된 직후인 지난달 23일 제주도청 기자실을 찾은 자리에서 "(정책토론이)법적 요건에 해당되면 당연히 응할 것이고, 해당되지 않더라도 여러 억측들에 대해 설명 내지는 토론을 할 필요가 있다고 생각한다"고 밝힌 바 있다.원 지사는 "업자측에서는 (정책토론 대상에)해당이 안된다는 법률자문결과를 어제 도에 제출했다. 도의 정책사업이라는 것을 어떻게 해석할 것인가. 다른 지자체는 자치단체가 주체가 되어 추진하는 경우였는데, 오라관광단지인 경우 단순히 사업자 추진하는 것 인허가 하는 것"이라며 "인허가 절차가 이에 해당되는가, 유권해석 법률자문을 충분히 받아서 그에 대한 판단을 하겠다"고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 박성우 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 원희룡, 오라관광단지 정책토론 수용 시사..."억측 설명 필요" 오라관광단지 정책토론 '반려' 강력반발..."협치 포기선언" 규탄 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주행 여객선서 선상이벤트 진행 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 제주행 여객선서 선상이벤트 진행 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 제주행 여객선서 선상이벤트 진행 신동원 기자 headlinejeju@headlinejeju.co.kr 승인 2016.12.12 14:30 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주도관광협회(회장 김영진)는 12일 제주-전남을 잇는 퀸스타2호 선내에서 관광객을 대상으로 환상의 마술쇼, 레크레이션, 경품추첨 등 다양한 이벤트를 진행했다.이날 행사는 선내에서 다채로운 이벤트를 진행해 관광객에게 뱃길관광의 만족도 제고와 구전효과를 극대화함으로써 제주기점 뱃길관광 활성화를 도모하기 위한 일환으로 추진됐다. 제주도와 제주도관광협회는 올해 제주와 호남지역(목포, 우수영, 여수, 완도)간 운항중인 선박내에서 이벤트 개최 및 제주기점 뱃길관광 상품개발 등으로 포화상태인 항공이용을 뱃길로 분산하는 등의 뱃길관광 활성화를 위한 노력을 지속적으로 해오고 있으며, 이달 중순에는 제주-부산 노선에서도 선상이벤트가 진행할 예정이다.뿐만 아니라, 선사에서도 크루즈형 대형 카페리 선박 도입 등 쾌적한 부대시설과 다양한 편의시설을 갖춰 관광객의 만족도를 높이고, 선박과 항로의 다양화 등 끊임없는 변화 시도와 세월호 참사 이후 부상한 선박 안전에 대한 불신을 해소하기 위해 '스마트폰 탑재 3D 해상안전 솔루션' 개발 등 안전성 확보에도 전력을 쏟고 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 신동원 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광약자접근성안내센터, '장애IN제주' 앱 개편 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도관광약자접근성안내센터, '장애IN제주' 앱 개편 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도관광약자접근성안내센터, '장애IN제주' 앱 개편 기자명 고경호 기자 입력 2016.12.07 20:42 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 사용자 맞춤형 편의 제공 확대장벽 없는 제주관광 만들기를 위한 어플리케이션 '장애IN제주'가 전면 개편됐다.제주도관광약자접근성안내센터는 사용자 편의에 맞춘 새로운 버전을 오픈했다고 7일 밝혔다.도관광약자접근성안내센터는 시각장애인을 위한 앱 접근성을 강화했으며, 색상 명도대비를 높여 저시력 장애인의 사용 편의도 제고했다.또 추천 검색어·인기 검색어 기능을 추가했으며, 사용자의 현재 위치에서 관광지를 찾아갈 수 있는 내비게이션 기능도 보강했다.새로 개편된 '장애IN제주' 앱은 안드로이드폰의 경우 '플레이 스토어'에서, 아이폰의 경우 '앱 스토어'에서 무료로 다운받을 수 있다. 고경호 기자 고경호 기자 kkh@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 사랑의 김장김치 나눔 &lt; 열린광장 &lt; 도민광장 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 사랑의 김장김치 나눔 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 도민광장 열린광장 제주도관광협회, 사랑의 김장김치 나눔 기자명 허성찬 기자 입력 2016.12.04 17:45 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도관광협회(회장 김영진)은 지난 3일 '2016 사랑의 김장김치 나눔행사'를 개최해 도내 사회복지단체를 비롯해 제주시 지역 독거노인 가구에 김장김치를 전달했다.김영진 회장은 "매년 시행되는 김장나눔 행사를 활성화하여 향후 더 많은 지역사회 소외계층에게 도움의 손길이 닿을 수 있도록 노력하겠다"고 전했다. 허성찬 기자 jejuhsc@gmail.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
   </si>
 </sst>
 </file>
@@ -437,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +552,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -469,9 +562,6 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
@@ -481,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -502,9 +592,6 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
@@ -514,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +612,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +623,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -546,9 +633,6 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
@@ -558,7 +642,227 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
